--- a/instance/zyjk/CHC/rule/ruleCase.xlsx
+++ b/instance/zyjk/CHC/rule/ruleCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linghuchong/Downloads/51/Python/project/instance/zyjk/CHC/rule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C8617D-9617-4B4D-AE18-3AF4D4282E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A1E6B-8C26-9D4B-9F69-A4FE0C96C96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37500" yWindow="1180" windowWidth="29700" windowHeight="18000" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38060" yWindow="500" windowWidth="31980" windowHeight="21100" tabRatio="730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="疾病身份证" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3900" uniqueCount="1278">
   <si>
     <t>YH_JB001</t>
   </si>
@@ -2982,9 +2982,6 @@
   </si>
   <si>
     <t>r14</t>
-  </si>
-  <si>
-    <t>r14</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3186,9 +3183,6 @@
   </si>
   <si>
     <t>60岁以上妇女乳腺癌筛查</t>
-  </si>
-  <si>
-    <t>RESULTFLAGCODE=4</t>
   </si>
   <si>
     <t>GY_FZ001</t>
@@ -4142,7 +4136,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO TB_DC_MEDICIANE ( IDCARD,MEDICINE_NAME) VALUES ('{身份证}','平和质')</t>
+    <t>INSERT INTO TB_DC_MEDICIANE (IDCARD,MEDICINE_NAME) VALUES ('{身份证}','{测试规则参数}')</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4154,7 +4148,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4414,6 +4408,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -5147,11 +5147,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5462,10 +5462,10 @@
         <v>309</v>
       </c>
       <c r="E1" s="142" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="F1" s="143" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G1" s="143" t="s">
         <v>306</v>
@@ -5482,13 +5482,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="165" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E2" s="165" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F2" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G2" s="166" t="s">
         <v>2</v>
@@ -5508,10 +5508,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="165" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="F3" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G3" s="166" t="s">
         <v>6</v>
@@ -5531,10 +5531,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="165" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F4" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G4" s="166" t="s">
         <v>6</v>
@@ -5554,10 +5554,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="167" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="F5" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G5" s="166" t="s">
         <v>6</v>
@@ -5577,10 +5577,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="165" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F6" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G6" s="166" t="s">
         <v>6</v>
@@ -5600,10 +5600,10 @@
         <v>17</v>
       </c>
       <c r="E7" s="165" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F7" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G7" s="166" t="s">
         <v>6</v>
@@ -5623,10 +5623,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="167" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="F8" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G8" s="166" t="s">
         <v>6</v>
@@ -5646,10 +5646,10 @@
         <v>23</v>
       </c>
       <c r="E9" s="165" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F9" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G9" s="166" t="s">
         <v>6</v>
@@ -5666,13 +5666,13 @@
         <v>25</v>
       </c>
       <c r="D10" s="165" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F10" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G10" s="166" t="s">
         <v>6</v>
@@ -5689,13 +5689,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="165" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E11" s="165" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F11" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G11" s="166" t="s">
         <v>6</v>
@@ -5712,13 +5712,13 @@
         <v>29</v>
       </c>
       <c r="D12" s="165" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E12" s="167" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F12" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G12" s="166" t="s">
         <v>6</v>
@@ -5738,10 +5738,10 @@
         <v>32</v>
       </c>
       <c r="E13" s="165" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F13" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G13" s="166" t="s">
         <v>33</v>
@@ -5761,10 +5761,10 @@
         <v>36</v>
       </c>
       <c r="E14" s="165" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F14" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G14" s="166" t="s">
         <v>33</v>
@@ -5784,10 +5784,10 @@
         <v>39</v>
       </c>
       <c r="E15" s="165" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="F15" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G15" s="166" t="s">
         <v>33</v>
@@ -5807,10 +5807,10 @@
         <v>42</v>
       </c>
       <c r="E16" s="170" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F16" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G16" s="166" t="s">
         <v>33</v>
@@ -5830,10 +5830,10 @@
         <v>45</v>
       </c>
       <c r="E17" s="165" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="F17" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G17" s="166" t="s">
         <v>33</v>
@@ -5853,10 +5853,10 @@
         <v>48</v>
       </c>
       <c r="E18" s="167" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="F18" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G18" s="166" t="s">
         <v>2</v>
@@ -5876,10 +5876,10 @@
         <v>51</v>
       </c>
       <c r="E19" s="167" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="F19" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G19" s="166" t="s">
         <v>2</v>
@@ -5899,10 +5899,10 @@
         <v>54</v>
       </c>
       <c r="E20" s="165" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="F20" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G20" s="166" t="s">
         <v>2</v>
@@ -5922,10 +5922,10 @@
         <v>57</v>
       </c>
       <c r="E21" s="165" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="F21" s="165" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G21" s="166" t="s">
         <v>2</v>
@@ -5945,10 +5945,10 @@
         <v>60</v>
       </c>
       <c r="E22" s="173" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="F22" s="173" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G22" s="174" t="s">
         <v>2</v>
@@ -5968,10 +5968,10 @@
         <v>63</v>
       </c>
       <c r="E23" s="166" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F23" s="166" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G23" s="166" t="s">
         <v>2</v>
@@ -5984,13 +5984,13 @@
       <c r="B24" s="164"/>
       <c r="C24" s="164"/>
       <c r="D24" s="175" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E24" s="168" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F24" s="164" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G24" s="164" t="s">
         <v>33</v>
@@ -6006,8 +6006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A28" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -6031,7 +6031,7 @@
         <v>402</v>
       </c>
       <c r="E1" s="146" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6045,10 +6045,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6062,10 +6062,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6079,10 +6079,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6096,10 +6096,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E5" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6113,10 +6113,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E6" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6130,10 +6130,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E7" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6147,10 +6147,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E8" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6167,7 +6167,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28">
@@ -6184,7 +6184,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6201,7 +6201,7 @@
         <v>70</v>
       </c>
       <c r="E11" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6215,10 +6215,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6232,10 +6232,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E13" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6249,10 +6249,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6266,10 +6266,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6283,10 +6283,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6300,10 +6300,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6317,10 +6317,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28">
@@ -6334,10 +6334,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6351,10 +6351,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E20" s="67" t="s">
         <v>1018</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6368,10 +6368,10 @@
         <v>5</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6385,10 +6385,10 @@
         <v>6</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6402,10 +6402,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6419,10 +6419,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6436,10 +6436,10 @@
         <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6453,10 +6453,10 @@
         <v>2</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E26" s="67" t="s">
         <v>1018</v>
-      </c>
-      <c r="E26" s="67" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6470,10 +6470,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6487,10 +6487,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28">
@@ -6504,10 +6504,10 @@
         <v>5</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6521,10 +6521,10 @@
         <v>6</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6538,10 +6538,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6555,10 +6555,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6575,7 +6575,7 @@
         <v>65</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6592,7 +6592,7 @@
         <v>67</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="28">
@@ -6609,7 +6609,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6623,10 +6623,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>74</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6660,7 +6660,7 @@
         <v>73</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6674,10 +6674,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6691,10 +6691,10 @@
         <v>8</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6708,10 +6708,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6725,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E42" s="67" t="s">
         <v>1024</v>
-      </c>
-      <c r="E42" s="67" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6742,10 +6742,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6759,10 +6759,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6776,10 +6776,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="28">
@@ -6793,10 +6793,10 @@
         <v>5</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6810,10 +6810,10 @@
         <v>6</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6827,10 +6827,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6844,10 +6844,10 @@
         <v>8</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6861,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6878,10 +6878,10 @@
         <v>2</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="28">
@@ -6895,10 +6895,10 @@
         <v>3</v>
       </c>
       <c r="D52" s="15" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E52" s="67" t="s">
         <v>1028</v>
-      </c>
-      <c r="E52" s="67" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28">
@@ -6912,10 +6912,10 @@
         <v>4</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6929,10 +6929,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6946,10 +6946,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6963,10 +6963,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6980,10 +6980,10 @@
         <v>8</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6997,10 +6997,10 @@
         <v>9</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E58" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -7014,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E59" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="28">
@@ -7031,10 +7031,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E60" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7048,10 +7048,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E61" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7065,10 +7065,10 @@
         <v>4</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E62" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -7082,10 +7082,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E63" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -7099,10 +7099,10 @@
         <v>6</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E64" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -7116,10 +7116,10 @@
         <v>7</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E65" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7133,10 +7133,10 @@
         <v>8</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E66" s="67" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -7153,7 +7153,7 @@
         <v>65</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -7170,7 +7170,7 @@
         <v>68</v>
       </c>
       <c r="E68" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -7184,10 +7184,10 @@
         <v>3</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E69" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -7204,7 +7204,7 @@
         <v>71</v>
       </c>
       <c r="E70" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -7221,7 +7221,7 @@
         <v>67</v>
       </c>
       <c r="E71" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="28">
@@ -7235,10 +7235,10 @@
         <v>6</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E72" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7255,7 +7255,7 @@
         <v>70</v>
       </c>
       <c r="E73" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -7272,7 +7272,7 @@
         <v>73</v>
       </c>
       <c r="E74" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -7286,10 +7286,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E75" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -7303,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E76" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -7323,7 +7323,7 @@
         <v>65</v>
       </c>
       <c r="E77" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -7340,7 +7340,7 @@
         <v>68</v>
       </c>
       <c r="E78" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -7354,10 +7354,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E79" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7374,7 +7374,7 @@
         <v>71</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -7391,7 +7391,7 @@
         <v>67</v>
       </c>
       <c r="E81" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -7408,7 +7408,7 @@
         <v>75</v>
       </c>
       <c r="E82" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -7425,7 +7425,7 @@
         <v>76</v>
       </c>
       <c r="E83" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="28">
@@ -7439,10 +7439,10 @@
         <v>8</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="E84" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -7459,7 +7459,7 @@
         <v>77</v>
       </c>
       <c r="E85" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="28">
@@ -7473,10 +7473,10 @@
         <v>10</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E86" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -7493,7 +7493,7 @@
         <v>70</v>
       </c>
       <c r="E87" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -7510,7 +7510,7 @@
         <v>73</v>
       </c>
       <c r="E88" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -7524,10 +7524,10 @@
         <v>13</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E89" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -7541,10 +7541,10 @@
         <v>14</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E90" s="67" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -7561,7 +7561,7 @@
         <v>66</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -7578,7 +7578,7 @@
         <v>67</v>
       </c>
       <c r="E92" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -7595,7 +7595,7 @@
         <v>70</v>
       </c>
       <c r="E93" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -7612,7 +7612,7 @@
         <v>72</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -7629,7 +7629,7 @@
         <v>73</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7643,10 +7643,10 @@
         <v>6</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -7660,10 +7660,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E97" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -7677,10 +7677,10 @@
         <v>8</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -7711,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="D100" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E100" s="67" t="s">
         <v>1024</v>
-      </c>
-      <c r="E100" s="67" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -7728,10 +7728,10 @@
         <v>2</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E101" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -7745,10 +7745,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E102" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -7762,10 +7762,10 @@
         <v>4</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E103" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -7779,10 +7779,10 @@
         <v>5</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E104" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -7796,10 +7796,10 @@
         <v>6</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E105" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -7813,10 +7813,10 @@
         <v>7</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E106" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -7830,10 +7830,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E107" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17">
@@ -7850,7 +7850,7 @@
         <v>65</v>
       </c>
       <c r="E108" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17">
@@ -7867,7 +7867,7 @@
         <v>70</v>
       </c>
       <c r="E109" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17">
@@ -7884,7 +7884,7 @@
         <v>73</v>
       </c>
       <c r="E110" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="51">
@@ -7898,10 +7898,10 @@
         <v>4</v>
       </c>
       <c r="D111" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E111" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17">
@@ -7918,7 +7918,7 @@
         <v>271</v>
       </c>
       <c r="E112" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17">
@@ -7932,10 +7932,10 @@
         <v>6</v>
       </c>
       <c r="D113" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E113" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17">
@@ -7949,10 +7949,10 @@
         <v>7</v>
       </c>
       <c r="D114" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E114" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17">
@@ -7966,10 +7966,10 @@
         <v>8</v>
       </c>
       <c r="D115" s="66" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E115" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17">
@@ -7983,10 +7983,10 @@
         <v>9</v>
       </c>
       <c r="D116" s="66" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E116" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17">
@@ -8000,10 +8000,10 @@
         <v>10</v>
       </c>
       <c r="D117" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E117" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="34">
@@ -8017,10 +8017,10 @@
         <v>11</v>
       </c>
       <c r="D118" s="66" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E118" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="51">
@@ -8034,10 +8034,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E119" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17">
@@ -8051,10 +8051,10 @@
         <v>13</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E120" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17">
@@ -8068,10 +8068,10 @@
         <v>14</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E121" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="34">
@@ -8085,10 +8085,10 @@
         <v>15</v>
       </c>
       <c r="D122" s="66" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E122" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="51">
@@ -8102,10 +8102,10 @@
         <v>16</v>
       </c>
       <c r="D123" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E123" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17">
@@ -8119,10 +8119,10 @@
         <v>17</v>
       </c>
       <c r="D124" s="66" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E124" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17">
@@ -8136,10 +8136,10 @@
         <v>18</v>
       </c>
       <c r="D125" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E125" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="34">
@@ -8153,10 +8153,10 @@
         <v>19</v>
       </c>
       <c r="D126" s="66" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E126" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="51">
@@ -8170,10 +8170,10 @@
         <v>20</v>
       </c>
       <c r="D127" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E127" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17">
@@ -8187,10 +8187,10 @@
         <v>21</v>
       </c>
       <c r="D128" s="66" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E128" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17">
@@ -8204,10 +8204,10 @@
         <v>22</v>
       </c>
       <c r="D129" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E129" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="34">
@@ -8221,10 +8221,10 @@
         <v>23</v>
       </c>
       <c r="D130" s="66" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E130" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="51">
@@ -8238,10 +8238,10 @@
         <v>24</v>
       </c>
       <c r="D131" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E131" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17">
@@ -8255,10 +8255,10 @@
         <v>25</v>
       </c>
       <c r="D132" s="66" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E132" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17">
@@ -8272,10 +8272,10 @@
         <v>26</v>
       </c>
       <c r="D133" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E133" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="34">
@@ -8289,10 +8289,10 @@
         <v>27</v>
       </c>
       <c r="D134" s="66" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E134" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="51">
@@ -8306,10 +8306,10 @@
         <v>28</v>
       </c>
       <c r="D135" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E135" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17">
@@ -8323,10 +8323,10 @@
         <v>29</v>
       </c>
       <c r="D136" s="66" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E136" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17">
@@ -8340,10 +8340,10 @@
         <v>30</v>
       </c>
       <c r="D137" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E137" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="34">
@@ -8357,10 +8357,10 @@
         <v>31</v>
       </c>
       <c r="D138" s="66" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E138" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="51">
@@ -8374,10 +8374,10 @@
         <v>32</v>
       </c>
       <c r="D139" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E139" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17">
@@ -8391,10 +8391,10 @@
         <v>33</v>
       </c>
       <c r="D140" s="66" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E140" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17">
@@ -8408,10 +8408,10 @@
         <v>34</v>
       </c>
       <c r="D141" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E141" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="34">
@@ -8425,10 +8425,10 @@
         <v>35</v>
       </c>
       <c r="D142" s="66" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E142" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="51">
@@ -8442,10 +8442,10 @@
         <v>36</v>
       </c>
       <c r="D143" s="66" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E143" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="34">
@@ -8459,10 +8459,10 @@
         <v>37</v>
       </c>
       <c r="D144" s="66" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E144" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="17">
@@ -8476,10 +8476,10 @@
         <v>38</v>
       </c>
       <c r="D145" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E145" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="34">
@@ -8493,10 +8493,10 @@
         <v>39</v>
       </c>
       <c r="D146" s="66" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E146" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="17">
@@ -8510,10 +8510,10 @@
         <v>40</v>
       </c>
       <c r="D147" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E147" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="51">
@@ -8527,10 +8527,10 @@
         <v>41</v>
       </c>
       <c r="D148" s="66" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E148" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="17">
@@ -8544,10 +8544,10 @@
         <v>42</v>
       </c>
       <c r="D149" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E149" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="34">
@@ -8561,10 +8561,10 @@
         <v>43</v>
       </c>
       <c r="D150" s="66" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E150" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="17">
@@ -8578,10 +8578,10 @@
         <v>44</v>
       </c>
       <c r="D151" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E151" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="17">
@@ -8598,7 +8598,7 @@
         <v>65</v>
       </c>
       <c r="E152" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="17">
@@ -8615,7 +8615,7 @@
         <v>70</v>
       </c>
       <c r="E153" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="17">
@@ -8632,7 +8632,7 @@
         <v>73</v>
       </c>
       <c r="E154" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="51">
@@ -8646,10 +8646,10 @@
         <v>4</v>
       </c>
       <c r="D155" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="17">
@@ -8666,7 +8666,7 @@
         <v>272</v>
       </c>
       <c r="E156" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="17">
@@ -8680,10 +8680,10 @@
         <v>6</v>
       </c>
       <c r="D157" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E157" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="17">
@@ -8697,10 +8697,10 @@
         <v>7</v>
       </c>
       <c r="D158" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E158" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="17">
@@ -8714,10 +8714,10 @@
         <v>8</v>
       </c>
       <c r="D159" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E159" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17">
@@ -8731,10 +8731,10 @@
         <v>9</v>
       </c>
       <c r="D160" s="66" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E160" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17">
@@ -8748,10 +8748,10 @@
         <v>10</v>
       </c>
       <c r="D161" s="66" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E161" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="17">
@@ -8765,10 +8765,10 @@
         <v>11</v>
       </c>
       <c r="D162" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E162" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="34">
@@ -8782,10 +8782,10 @@
         <v>12</v>
       </c>
       <c r="D163" s="66" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E163" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="51">
@@ -8799,10 +8799,10 @@
         <v>13</v>
       </c>
       <c r="D164" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E164" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="17">
@@ -8816,10 +8816,10 @@
         <v>14</v>
       </c>
       <c r="D165" s="66" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E165" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="17">
@@ -8833,10 +8833,10 @@
         <v>15</v>
       </c>
       <c r="D166" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E166" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="34">
@@ -8850,10 +8850,10 @@
         <v>16</v>
       </c>
       <c r="D167" s="66" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E167" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="51">
@@ -8867,10 +8867,10 @@
         <v>17</v>
       </c>
       <c r="D168" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E168" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="17">
@@ -8884,10 +8884,10 @@
         <v>18</v>
       </c>
       <c r="D169" s="66" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E169" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="17">
@@ -8901,10 +8901,10 @@
         <v>19</v>
       </c>
       <c r="D170" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E170" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="34">
@@ -8918,10 +8918,10 @@
         <v>20</v>
       </c>
       <c r="D171" s="66" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E171" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="51">
@@ -8935,10 +8935,10 @@
         <v>21</v>
       </c>
       <c r="D172" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E172" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="17">
@@ -8952,10 +8952,10 @@
         <v>22</v>
       </c>
       <c r="D173" s="66" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E173" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="17">
@@ -8969,10 +8969,10 @@
         <v>23</v>
       </c>
       <c r="D174" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E174" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="34">
@@ -8986,10 +8986,10 @@
         <v>24</v>
       </c>
       <c r="D175" s="66" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="E175" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="51">
@@ -9003,10 +9003,10 @@
         <v>25</v>
       </c>
       <c r="D176" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E176" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="17">
@@ -9020,10 +9020,10 @@
         <v>26</v>
       </c>
       <c r="D177" s="66" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E177" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="17">
@@ -9037,10 +9037,10 @@
         <v>27</v>
       </c>
       <c r="D178" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E178" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="34">
@@ -9054,10 +9054,10 @@
         <v>28</v>
       </c>
       <c r="D179" s="66" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E179" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="51">
@@ -9071,10 +9071,10 @@
         <v>29</v>
       </c>
       <c r="D180" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E180" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="17">
@@ -9088,10 +9088,10 @@
         <v>30</v>
       </c>
       <c r="D181" s="66" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E181" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="17">
@@ -9105,10 +9105,10 @@
         <v>31</v>
       </c>
       <c r="D182" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E182" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="34">
@@ -9122,10 +9122,10 @@
         <v>32</v>
       </c>
       <c r="D183" s="66" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E183" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="51">
@@ -9139,10 +9139,10 @@
         <v>33</v>
       </c>
       <c r="D184" s="66" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E184" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="51">
@@ -9159,7 +9159,7 @@
         <v>290</v>
       </c>
       <c r="E185" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="17">
@@ -9173,10 +9173,10 @@
         <v>35</v>
       </c>
       <c r="D186" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E186" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="34">
@@ -9190,10 +9190,10 @@
         <v>36</v>
       </c>
       <c r="D187" s="66" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E187" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="17">
@@ -9210,7 +9210,7 @@
         <v>272</v>
       </c>
       <c r="E188" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="51">
@@ -9227,7 +9227,7 @@
         <v>291</v>
       </c>
       <c r="E189" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="17">
@@ -9241,10 +9241,10 @@
         <v>39</v>
       </c>
       <c r="D190" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E190" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="34">
@@ -9258,10 +9258,10 @@
         <v>40</v>
       </c>
       <c r="D191" s="66" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E191" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="17">
@@ -9278,7 +9278,7 @@
         <v>272</v>
       </c>
       <c r="E192" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="51">
@@ -9295,7 +9295,7 @@
         <v>293</v>
       </c>
       <c r="E193" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="17">
@@ -9309,10 +9309,10 @@
         <v>43</v>
       </c>
       <c r="D194" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E194" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="34">
@@ -9326,10 +9326,10 @@
         <v>44</v>
       </c>
       <c r="D195" s="66" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E195" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="17">
@@ -9346,7 +9346,7 @@
         <v>272</v>
       </c>
       <c r="E196" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="51">
@@ -9360,10 +9360,10 @@
         <v>46</v>
       </c>
       <c r="D197" s="66" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E197" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="17">
@@ -9377,10 +9377,10 @@
         <v>47</v>
       </c>
       <c r="D198" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E198" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="34">
@@ -9394,10 +9394,10 @@
         <v>48</v>
       </c>
       <c r="D199" s="66" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E199" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="17">
@@ -9411,10 +9411,10 @@
         <v>49</v>
       </c>
       <c r="D200" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E200" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="34">
@@ -9428,10 +9428,10 @@
         <v>50</v>
       </c>
       <c r="D201" s="66" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E201" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="17">
@@ -9445,10 +9445,10 @@
         <v>51</v>
       </c>
       <c r="D202" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E202" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="34">
@@ -9462,10 +9462,10 @@
         <v>52</v>
       </c>
       <c r="D203" s="66" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E203" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="17">
@@ -9479,10 +9479,10 @@
         <v>53</v>
       </c>
       <c r="D204" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E204" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="17">
@@ -9499,7 +9499,7 @@
         <v>65</v>
       </c>
       <c r="E205" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="17">
@@ -9516,7 +9516,7 @@
         <v>70</v>
       </c>
       <c r="E206" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="17">
@@ -9533,7 +9533,7 @@
         <v>73</v>
       </c>
       <c r="E207" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="34">
@@ -9547,10 +9547,10 @@
         <v>4</v>
       </c>
       <c r="D208" s="66" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E208" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17">
@@ -9564,10 +9564,10 @@
         <v>5</v>
       </c>
       <c r="D209" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E209" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17">
@@ -9581,10 +9581,10 @@
         <v>6</v>
       </c>
       <c r="D210" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E210" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17">
@@ -9601,7 +9601,7 @@
         <v>272</v>
       </c>
       <c r="E211" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17">
@@ -9615,10 +9615,10 @@
         <v>8</v>
       </c>
       <c r="D212" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E212" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17">
@@ -9632,10 +9632,10 @@
         <v>9</v>
       </c>
       <c r="D213" s="66" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E213" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="51">
@@ -9652,7 +9652,7 @@
         <v>277</v>
       </c>
       <c r="E214" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17">
@@ -9666,10 +9666,10 @@
         <v>11</v>
       </c>
       <c r="D215" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E215" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17">
@@ -9683,10 +9683,10 @@
         <v>12</v>
       </c>
       <c r="D216" s="66" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E216" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="51">
@@ -9700,10 +9700,10 @@
         <v>13</v>
       </c>
       <c r="D217" s="66" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E217" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17">
@@ -9717,10 +9717,10 @@
         <v>14</v>
       </c>
       <c r="D218" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E218" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="17">
@@ -9734,10 +9734,10 @@
         <v>15</v>
       </c>
       <c r="D219" s="66" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E219" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="51">
@@ -9751,10 +9751,10 @@
         <v>16</v>
       </c>
       <c r="D220" s="66" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E220" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="17">
@@ -9768,10 +9768,10 @@
         <v>17</v>
       </c>
       <c r="D221" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E221" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="34">
@@ -9785,10 +9785,10 @@
         <v>18</v>
       </c>
       <c r="D222" s="66" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E222" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="17">
@@ -9805,7 +9805,7 @@
         <v>272</v>
       </c>
       <c r="E223" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="17">
@@ -9819,10 +9819,10 @@
         <v>20</v>
       </c>
       <c r="D224" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E224" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="17">
@@ -9836,10 +9836,10 @@
         <v>21</v>
       </c>
       <c r="D225" s="66" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E225" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="17">
@@ -9853,10 +9853,10 @@
         <v>22</v>
       </c>
       <c r="D226" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E226" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="34">
@@ -9870,10 +9870,10 @@
         <v>23</v>
       </c>
       <c r="D227" s="66" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E227" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="34">
@@ -9887,10 +9887,10 @@
         <v>24</v>
       </c>
       <c r="D228" s="66" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E228" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="34">
@@ -9904,10 +9904,10 @@
         <v>25</v>
       </c>
       <c r="D229" s="66" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E229" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="34">
@@ -9921,10 +9921,10 @@
         <v>26</v>
       </c>
       <c r="D230" s="66" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E230" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="51">
@@ -9938,10 +9938,10 @@
         <v>27</v>
       </c>
       <c r="D231" s="66" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E231" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="17">
@@ -9955,10 +9955,10 @@
         <v>28</v>
       </c>
       <c r="D232" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E232" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="17">
@@ -9972,10 +9972,10 @@
         <v>29</v>
       </c>
       <c r="D233" s="66" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E233" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="34">
@@ -9989,10 +9989,10 @@
         <v>30</v>
       </c>
       <c r="D234" s="66" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E234" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="17">
@@ -10006,10 +10006,10 @@
         <v>31</v>
       </c>
       <c r="D235" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E235" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="17">
@@ -10023,10 +10023,10 @@
         <v>32</v>
       </c>
       <c r="D236" s="66" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E236" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="17">
@@ -10040,10 +10040,10 @@
         <v>33</v>
       </c>
       <c r="D237" s="66" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E237" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="17">
@@ -10057,10 +10057,10 @@
         <v>34</v>
       </c>
       <c r="D238" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E238" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="34">
@@ -10074,10 +10074,10 @@
         <v>35</v>
       </c>
       <c r="D239" s="66" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E239" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="17">
@@ -10091,10 +10091,10 @@
         <v>36</v>
       </c>
       <c r="D240" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E240" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="17">
@@ -10108,10 +10108,10 @@
         <v>37</v>
       </c>
       <c r="D241" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E241" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="34">
@@ -10125,10 +10125,10 @@
         <v>38</v>
       </c>
       <c r="D242" s="66" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E242" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="51">
@@ -10145,7 +10145,7 @@
         <v>292</v>
       </c>
       <c r="E243" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="17">
@@ -10159,10 +10159,10 @@
         <v>40</v>
       </c>
       <c r="D244" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E244" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="34">
@@ -10176,10 +10176,10 @@
         <v>41</v>
       </c>
       <c r="D245" s="66" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E245" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="17">
@@ -10196,7 +10196,7 @@
         <v>272</v>
       </c>
       <c r="E246" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="17">
@@ -10213,7 +10213,7 @@
         <v>65</v>
       </c>
       <c r="E247" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="17">
@@ -10230,7 +10230,7 @@
         <v>70</v>
       </c>
       <c r="E248" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="17">
@@ -10247,7 +10247,7 @@
         <v>73</v>
       </c>
       <c r="E249" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="34">
@@ -10261,10 +10261,10 @@
         <v>4</v>
       </c>
       <c r="D250" s="66" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E250" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="17">
@@ -10278,10 +10278,10 @@
         <v>5</v>
       </c>
       <c r="D251" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E251" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="17">
@@ -10295,10 +10295,10 @@
         <v>6</v>
       </c>
       <c r="D252" s="66" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E252" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="17">
@@ -10315,7 +10315,7 @@
         <v>272</v>
       </c>
       <c r="E253" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="17">
@@ -10329,10 +10329,10 @@
         <v>8</v>
       </c>
       <c r="D254" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E254" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="17">
@@ -10346,10 +10346,10 @@
         <v>9</v>
       </c>
       <c r="D255" s="66" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E255" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="51">
@@ -10363,10 +10363,10 @@
         <v>10</v>
       </c>
       <c r="D256" s="66" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E256" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="17">
@@ -10380,10 +10380,10 @@
         <v>11</v>
       </c>
       <c r="D257" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E257" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="34">
@@ -10397,10 +10397,10 @@
         <v>12</v>
       </c>
       <c r="D258" s="66" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E258" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="17">
@@ -10414,10 +10414,10 @@
         <v>13</v>
       </c>
       <c r="D259" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E259" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="51">
@@ -10431,10 +10431,10 @@
         <v>14</v>
       </c>
       <c r="D260" s="66" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E260" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="17">
@@ -10448,10 +10448,10 @@
         <v>15</v>
       </c>
       <c r="D261" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E261" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="34">
@@ -10465,10 +10465,10 @@
         <v>16</v>
       </c>
       <c r="D262" s="66" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E262" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="17">
@@ -10482,10 +10482,10 @@
         <v>17</v>
       </c>
       <c r="D263" s="66" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E263" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="34">
@@ -10499,10 +10499,10 @@
         <v>18</v>
       </c>
       <c r="D264" s="66" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E264" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="17">
@@ -10516,10 +10516,10 @@
         <v>19</v>
       </c>
       <c r="D265" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E265" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="34">
@@ -10533,10 +10533,10 @@
         <v>20</v>
       </c>
       <c r="D266" s="66" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E266" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="17">
@@ -10550,10 +10550,10 @@
         <v>21</v>
       </c>
       <c r="D267" s="66" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E267" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="34">
@@ -10567,10 +10567,10 @@
         <v>22</v>
       </c>
       <c r="D268" s="66" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E268" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="17">
@@ -10584,10 +10584,10 @@
         <v>23</v>
       </c>
       <c r="D269" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E269" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="34">
@@ -10601,10 +10601,10 @@
         <v>24</v>
       </c>
       <c r="D270" s="66" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E270" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="17">
@@ -10618,10 +10618,10 @@
         <v>25</v>
       </c>
       <c r="D271" s="66" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E271" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="17">
@@ -10635,10 +10635,10 @@
         <v>26</v>
       </c>
       <c r="D272" s="66" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E272" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="17">
@@ -10652,10 +10652,10 @@
         <v>27</v>
       </c>
       <c r="D273" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E273" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="34">
@@ -10669,10 +10669,10 @@
         <v>28</v>
       </c>
       <c r="D274" s="66" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E274" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="34">
@@ -10686,10 +10686,10 @@
         <v>29</v>
       </c>
       <c r="D275" s="66" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E275" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="17">
@@ -10703,10 +10703,10 @@
         <v>30</v>
       </c>
       <c r="D276" s="66" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E276" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="17">
@@ -10720,10 +10720,10 @@
         <v>31</v>
       </c>
       <c r="D277" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E277" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="34">
@@ -10737,10 +10737,10 @@
         <v>32</v>
       </c>
       <c r="D278" s="66" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E278" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="34">
@@ -10754,10 +10754,10 @@
         <v>33</v>
       </c>
       <c r="D279" s="66" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E279" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="17">
@@ -10771,10 +10771,10 @@
         <v>34</v>
       </c>
       <c r="D280" s="66" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E280" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="17">
@@ -10788,10 +10788,10 @@
         <v>35</v>
       </c>
       <c r="D281" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E281" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="34">
@@ -10805,10 +10805,10 @@
         <v>36</v>
       </c>
       <c r="D282" s="66" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E282" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="34">
@@ -10822,10 +10822,10 @@
         <v>37</v>
       </c>
       <c r="D283" s="66" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E283" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="17">
@@ -10839,10 +10839,10 @@
         <v>38</v>
       </c>
       <c r="D284" s="66" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E284" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="17">
@@ -10856,10 +10856,10 @@
         <v>39</v>
       </c>
       <c r="D285" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E285" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="34">
@@ -10873,10 +10873,10 @@
         <v>40</v>
       </c>
       <c r="D286" s="66" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E286" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="34">
@@ -10890,10 +10890,10 @@
         <v>41</v>
       </c>
       <c r="D287" s="66" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E287" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="51">
@@ -10910,7 +10910,7 @@
         <v>294</v>
       </c>
       <c r="E288" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="17">
@@ -10924,10 +10924,10 @@
         <v>43</v>
       </c>
       <c r="D289" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E289" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="34">
@@ -10941,10 +10941,10 @@
         <v>44</v>
       </c>
       <c r="D290" s="66" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E290" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="17">
@@ -10961,7 +10961,7 @@
         <v>272</v>
       </c>
       <c r="E291" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="17">
@@ -10978,7 +10978,7 @@
         <v>65</v>
       </c>
       <c r="E292" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="17">
@@ -10995,7 +10995,7 @@
         <v>70</v>
       </c>
       <c r="E293" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="17">
@@ -11012,7 +11012,7 @@
         <v>73</v>
       </c>
       <c r="E294" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="17">
@@ -11026,10 +11026,10 @@
         <v>4</v>
       </c>
       <c r="D295" s="66" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E295" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="17">
@@ -11043,10 +11043,10 @@
         <v>5</v>
       </c>
       <c r="D296" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E296" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="17">
@@ -11063,7 +11063,7 @@
         <v>272</v>
       </c>
       <c r="E297" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="17">
@@ -11077,10 +11077,10 @@
         <v>7</v>
       </c>
       <c r="D298" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E298" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="17">
@@ -11094,10 +11094,10 @@
         <v>8</v>
       </c>
       <c r="D299" s="66" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E299" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="17">
@@ -11111,10 +11111,10 @@
         <v>9</v>
       </c>
       <c r="D300" s="66" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E300" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="17">
@@ -11128,10 +11128,10 @@
         <v>10</v>
       </c>
       <c r="D301" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E301" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="34">
@@ -11145,10 +11145,10 @@
         <v>11</v>
       </c>
       <c r="D302" s="66" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E302" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="17">
@@ -11162,10 +11162,10 @@
         <v>12</v>
       </c>
       <c r="D303" s="66" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E303" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="17">
@@ -11179,10 +11179,10 @@
         <v>13</v>
       </c>
       <c r="D304" s="66" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E304" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="17">
@@ -11196,10 +11196,10 @@
         <v>14</v>
       </c>
       <c r="D305" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E305" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="34">
@@ -11213,10 +11213,10 @@
         <v>15</v>
       </c>
       <c r="D306" s="66" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E306" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="17">
@@ -11230,10 +11230,10 @@
         <v>16</v>
       </c>
       <c r="D307" s="66" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E307" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="17">
@@ -11247,10 +11247,10 @@
         <v>17</v>
       </c>
       <c r="D308" s="66" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E308" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="17">
@@ -11264,10 +11264,10 @@
         <v>18</v>
       </c>
       <c r="D309" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E309" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="34">
@@ -11281,10 +11281,10 @@
         <v>19</v>
       </c>
       <c r="D310" s="66" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E310" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="17">
@@ -11298,10 +11298,10 @@
         <v>20</v>
       </c>
       <c r="D311" s="66" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E311" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="34">
@@ -11315,10 +11315,10 @@
         <v>21</v>
       </c>
       <c r="D312" s="66" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E312" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="17">
@@ -11332,10 +11332,10 @@
         <v>22</v>
       </c>
       <c r="D313" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E313" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="34">
@@ -11349,10 +11349,10 @@
         <v>23</v>
       </c>
       <c r="D314" s="66" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E314" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="17">
@@ -11366,10 +11366,10 @@
         <v>24</v>
       </c>
       <c r="D315" s="66" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="E315" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="51">
@@ -11386,7 +11386,7 @@
         <v>288</v>
       </c>
       <c r="E316" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="17">
@@ -11400,10 +11400,10 @@
         <v>26</v>
       </c>
       <c r="D317" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E317" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="34">
@@ -11417,10 +11417,10 @@
         <v>27</v>
       </c>
       <c r="D318" s="66" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E318" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="17">
@@ -11437,7 +11437,7 @@
         <v>272</v>
       </c>
       <c r="E319" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="51">
@@ -11454,7 +11454,7 @@
         <v>289</v>
       </c>
       <c r="E320" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="17">
@@ -11468,10 +11468,10 @@
         <v>30</v>
       </c>
       <c r="D321" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E321" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="34">
@@ -11485,10 +11485,10 @@
         <v>31</v>
       </c>
       <c r="D322" s="66" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E322" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="17">
@@ -11505,7 +11505,7 @@
         <v>272</v>
       </c>
       <c r="E323" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="17">
@@ -11522,7 +11522,7 @@
         <v>65</v>
       </c>
       <c r="E324" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="17">
@@ -11539,7 +11539,7 @@
         <v>70</v>
       </c>
       <c r="E325" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="17">
@@ -11556,7 +11556,7 @@
         <v>73</v>
       </c>
       <c r="E326" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="17">
@@ -11570,10 +11570,10 @@
         <v>4</v>
       </c>
       <c r="D327" s="66" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E327" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="17">
@@ -11590,7 +11590,7 @@
         <v>270</v>
       </c>
       <c r="E328" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="17">
@@ -11604,10 +11604,10 @@
         <v>6</v>
       </c>
       <c r="D329" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E329" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="17">
@@ -11621,10 +11621,10 @@
         <v>7</v>
       </c>
       <c r="D330" s="66" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E330" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="51">
@@ -11641,7 +11641,7 @@
         <v>274</v>
       </c>
       <c r="E331" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="17">
@@ -11655,10 +11655,10 @@
         <v>9</v>
       </c>
       <c r="D332" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E332" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="34">
@@ -11672,10 +11672,10 @@
         <v>10</v>
       </c>
       <c r="D333" s="66" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E333" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="17">
@@ -11692,7 +11692,7 @@
         <v>270</v>
       </c>
       <c r="E334" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="51">
@@ -11709,7 +11709,7 @@
         <v>279</v>
       </c>
       <c r="E335" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="17">
@@ -11723,10 +11723,10 @@
         <v>13</v>
       </c>
       <c r="D336" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E336" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="34">
@@ -11740,10 +11740,10 @@
         <v>14</v>
       </c>
       <c r="D337" s="66" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E337" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="17">
@@ -11760,7 +11760,7 @@
         <v>270</v>
       </c>
       <c r="E338" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="51">
@@ -11777,7 +11777,7 @@
         <v>282</v>
       </c>
       <c r="E339" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="17">
@@ -11791,10 +11791,10 @@
         <v>17</v>
       </c>
       <c r="D340" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E340" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="341" spans="1:5" ht="34">
@@ -11808,10 +11808,10 @@
         <v>18</v>
       </c>
       <c r="D341" s="66" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E341" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="342" spans="1:5" ht="17">
@@ -11828,7 +11828,7 @@
         <v>270</v>
       </c>
       <c r="E342" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="343" spans="1:5" ht="17">
@@ -11842,10 +11842,10 @@
         <v>20</v>
       </c>
       <c r="D343" s="66" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E343" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="17">
@@ -11859,10 +11859,10 @@
         <v>21</v>
       </c>
       <c r="D344" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E344" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="345" spans="1:5" ht="34">
@@ -11876,10 +11876,10 @@
         <v>22</v>
       </c>
       <c r="D345" s="66" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E345" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="17">
@@ -11893,10 +11893,10 @@
         <v>23</v>
       </c>
       <c r="D346" s="66" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E346" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="347" spans="1:5" ht="17">
@@ -11910,10 +11910,10 @@
         <v>24</v>
       </c>
       <c r="D347" s="66" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E347" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="348" spans="1:5" ht="17">
@@ -11927,10 +11927,10 @@
         <v>25</v>
       </c>
       <c r="D348" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E348" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="34">
@@ -11944,10 +11944,10 @@
         <v>26</v>
       </c>
       <c r="D349" s="66" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E349" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="350" spans="1:5" ht="17">
@@ -11961,10 +11961,10 @@
         <v>27</v>
       </c>
       <c r="D350" s="66" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E350" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="351" spans="1:5" ht="17">
@@ -11981,7 +11981,7 @@
         <v>65</v>
       </c>
       <c r="E351" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="352" spans="1:5" ht="17">
@@ -11998,7 +11998,7 @@
         <v>70</v>
       </c>
       <c r="E352" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="353" spans="1:5" ht="17">
@@ -12015,7 +12015,7 @@
         <v>73</v>
       </c>
       <c r="E353" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="17">
@@ -12029,10 +12029,10 @@
         <v>4</v>
       </c>
       <c r="D354" s="66" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E354" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="355" spans="1:5" ht="17">
@@ -12049,7 +12049,7 @@
         <v>270</v>
       </c>
       <c r="E355" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="17">
@@ -12063,10 +12063,10 @@
         <v>6</v>
       </c>
       <c r="D356" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E356" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="17">
@@ -12080,10 +12080,10 @@
         <v>7</v>
       </c>
       <c r="D357" s="66" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E357" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="51">
@@ -12100,7 +12100,7 @@
         <v>275</v>
       </c>
       <c r="E358" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="17">
@@ -12114,10 +12114,10 @@
         <v>9</v>
       </c>
       <c r="D359" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E359" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="360" spans="1:5" ht="34">
@@ -12131,10 +12131,10 @@
         <v>10</v>
       </c>
       <c r="D360" s="66" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E360" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="361" spans="1:5" ht="17">
@@ -12151,7 +12151,7 @@
         <v>65</v>
       </c>
       <c r="E361" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="362" spans="1:5" ht="17">
@@ -12168,7 +12168,7 @@
         <v>70</v>
       </c>
       <c r="E362" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="363" spans="1:5" ht="17">
@@ -12185,7 +12185,7 @@
         <v>73</v>
       </c>
       <c r="E363" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="364" spans="1:5" ht="17">
@@ -12199,10 +12199,10 @@
         <v>4</v>
       </c>
       <c r="D364" s="66" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E364" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="365" spans="1:5" ht="17">
@@ -12219,7 +12219,7 @@
         <v>270</v>
       </c>
       <c r="E365" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="366" spans="1:5" ht="17">
@@ -12233,10 +12233,10 @@
         <v>6</v>
       </c>
       <c r="D366" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E366" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="367" spans="1:5" ht="17">
@@ -12250,10 +12250,10 @@
         <v>7</v>
       </c>
       <c r="D367" s="66" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E367" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="51">
@@ -12270,7 +12270,7 @@
         <v>860</v>
       </c>
       <c r="E368" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="17">
@@ -12284,10 +12284,10 @@
         <v>9</v>
       </c>
       <c r="D369" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E369" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="370" spans="1:5" ht="34">
@@ -12301,10 +12301,10 @@
         <v>10</v>
       </c>
       <c r="D370" s="66" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E370" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="371" spans="1:5" ht="17">
@@ -12321,7 +12321,7 @@
         <v>270</v>
       </c>
       <c r="E371" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="51">
@@ -12338,7 +12338,7 @@
         <v>280</v>
       </c>
       <c r="E372" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="17">
@@ -12352,10 +12352,10 @@
         <v>13</v>
       </c>
       <c r="D373" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E373" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="34">
@@ -12369,10 +12369,10 @@
         <v>14</v>
       </c>
       <c r="D374" s="66" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E374" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="17">
@@ -12389,7 +12389,7 @@
         <v>270</v>
       </c>
       <c r="E375" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="51">
@@ -12406,7 +12406,7 @@
         <v>283</v>
       </c>
       <c r="E376" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="377" spans="1:5" ht="17">
@@ -12420,10 +12420,10 @@
         <v>17</v>
       </c>
       <c r="D377" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E377" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="34">
@@ -12437,10 +12437,10 @@
         <v>18</v>
       </c>
       <c r="D378" s="66" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E378" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="17">
@@ -12457,7 +12457,7 @@
         <v>270</v>
       </c>
       <c r="E379" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="380" spans="1:5" ht="51">
@@ -12474,7 +12474,7 @@
         <v>285</v>
       </c>
       <c r="E380" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="381" spans="1:5" ht="17">
@@ -12488,10 +12488,10 @@
         <v>21</v>
       </c>
       <c r="D381" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E381" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="34">
@@ -12505,10 +12505,10 @@
         <v>22</v>
       </c>
       <c r="D382" s="66" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E382" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="17">
@@ -12525,7 +12525,7 @@
         <v>270</v>
       </c>
       <c r="E383" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="51">
@@ -12542,7 +12542,7 @@
         <v>287</v>
       </c>
       <c r="E384" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="17">
@@ -12556,10 +12556,10 @@
         <v>25</v>
       </c>
       <c r="D385" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E385" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="34">
@@ -12573,10 +12573,10 @@
         <v>26</v>
       </c>
       <c r="D386" s="66" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E386" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="17">
@@ -12593,7 +12593,7 @@
         <v>270</v>
       </c>
       <c r="E387" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="17">
@@ -12610,7 +12610,7 @@
         <v>65</v>
       </c>
       <c r="E388" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="389" spans="1:5" ht="17">
@@ -12627,7 +12627,7 @@
         <v>70</v>
       </c>
       <c r="E389" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="390" spans="1:5" ht="17">
@@ -12644,7 +12644,7 @@
         <v>73</v>
       </c>
       <c r="E390" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="391" spans="1:5" ht="17">
@@ -12661,7 +12661,7 @@
         <v>270</v>
       </c>
       <c r="E391" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="392" spans="1:5" ht="17">
@@ -12675,10 +12675,10 @@
         <v>5</v>
       </c>
       <c r="D392" s="66" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E392" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="393" spans="1:5" ht="17">
@@ -12692,10 +12692,10 @@
         <v>6</v>
       </c>
       <c r="D393" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E393" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="394" spans="1:5" ht="17">
@@ -12709,10 +12709,10 @@
         <v>7</v>
       </c>
       <c r="D394" s="66" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E394" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="395" spans="1:5" ht="51">
@@ -12729,7 +12729,7 @@
         <v>276</v>
       </c>
       <c r="E395" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="396" spans="1:5" ht="17">
@@ -12743,10 +12743,10 @@
         <v>9</v>
       </c>
       <c r="D396" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E396" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="34">
@@ -12760,10 +12760,10 @@
         <v>10</v>
       </c>
       <c r="D397" s="66" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E397" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="17">
@@ -12780,7 +12780,7 @@
         <v>270</v>
       </c>
       <c r="E398" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="51">
@@ -12797,7 +12797,7 @@
         <v>281</v>
       </c>
       <c r="E399" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="400" spans="1:5" ht="17">
@@ -12811,10 +12811,10 @@
         <v>13</v>
       </c>
       <c r="D400" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E400" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="401" spans="1:5" ht="34">
@@ -12828,10 +12828,10 @@
         <v>14</v>
       </c>
       <c r="D401" s="66" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E401" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="17">
@@ -12848,7 +12848,7 @@
         <v>270</v>
       </c>
       <c r="E402" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="403" spans="1:5" ht="51">
@@ -12865,7 +12865,7 @@
         <v>284</v>
       </c>
       <c r="E403" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="17">
@@ -12879,10 +12879,10 @@
         <v>17</v>
       </c>
       <c r="D404" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E404" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="34">
@@ -12896,10 +12896,10 @@
         <v>18</v>
       </c>
       <c r="D405" s="66" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E405" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="406" spans="1:5" ht="17">
@@ -12916,7 +12916,7 @@
         <v>270</v>
       </c>
       <c r="E406" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="51">
@@ -12933,7 +12933,7 @@
         <v>286</v>
       </c>
       <c r="E407" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="408" spans="1:5" ht="17">
@@ -12947,10 +12947,10 @@
         <v>21</v>
       </c>
       <c r="D408" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E408" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="34">
@@ -12964,10 +12964,10 @@
         <v>22</v>
       </c>
       <c r="D409" s="66" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E409" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="410" spans="1:5" ht="17">
@@ -12984,7 +12984,7 @@
         <v>270</v>
       </c>
       <c r="E410" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="411" spans="1:5" ht="17">
@@ -12998,10 +12998,10 @@
         <v>24</v>
       </c>
       <c r="D411" s="66" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E411" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="412" spans="1:5" ht="17">
@@ -13018,7 +13018,7 @@
         <v>70</v>
       </c>
       <c r="E412" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="413" spans="1:5" ht="34">
@@ -13032,10 +13032,10 @@
         <v>26</v>
       </c>
       <c r="D413" s="66" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E413" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="414" spans="1:5" ht="17">
@@ -13049,10 +13049,10 @@
         <v>27</v>
       </c>
       <c r="D414" s="66" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E414" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="415" spans="1:5" ht="17">
@@ -13069,7 +13069,7 @@
         <v>65</v>
       </c>
       <c r="E415" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="416" spans="1:5" ht="17">
@@ -13086,7 +13086,7 @@
         <v>70</v>
       </c>
       <c r="E416" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="417" spans="1:5" ht="17">
@@ -13103,7 +13103,7 @@
         <v>73</v>
       </c>
       <c r="E417" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="418" spans="1:5" ht="17">
@@ -13120,7 +13120,7 @@
         <v>270</v>
       </c>
       <c r="E418" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="419" spans="1:5" ht="17">
@@ -13134,10 +13134,10 @@
         <v>5</v>
       </c>
       <c r="D419" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E419" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="420" spans="1:5" ht="17">
@@ -13151,10 +13151,10 @@
         <v>6</v>
       </c>
       <c r="D420" s="66" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E420" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="421" spans="1:5" ht="51">
@@ -13171,7 +13171,7 @@
         <v>273</v>
       </c>
       <c r="E421" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="422" spans="1:5" ht="17">
@@ -13185,10 +13185,10 @@
         <v>8</v>
       </c>
       <c r="D422" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E422" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="423" spans="1:5" ht="34">
@@ -13202,10 +13202,10 @@
         <v>9</v>
       </c>
       <c r="D423" s="66" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E423" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="424" spans="1:5" ht="17">
@@ -13222,7 +13222,7 @@
         <v>270</v>
       </c>
       <c r="E424" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="425" spans="1:5" ht="51">
@@ -13239,7 +13239,7 @@
         <v>278</v>
       </c>
       <c r="E425" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="426" spans="1:5" ht="17">
@@ -13253,10 +13253,10 @@
         <v>12</v>
       </c>
       <c r="D426" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E426" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="427" spans="1:5" ht="34">
@@ -13270,10 +13270,10 @@
         <v>13</v>
       </c>
       <c r="D427" s="66" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E427" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="428" spans="1:5" ht="17">
@@ -13287,10 +13287,10 @@
         <v>14</v>
       </c>
       <c r="D428" s="65" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E428" s="67" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="429" spans="1:5" ht="17">
@@ -13307,7 +13307,7 @@
         <v>400</v>
       </c>
       <c r="E429" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="430" spans="1:5" ht="17">
@@ -13321,10 +13321,10 @@
         <v>2</v>
       </c>
       <c r="D430" s="65" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E430" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="431" spans="1:5" ht="51">
@@ -13338,10 +13338,10 @@
         <v>3</v>
       </c>
       <c r="D431" s="66" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E431" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="432" spans="1:5" ht="17">
@@ -13355,10 +13355,10 @@
         <v>4</v>
       </c>
       <c r="D432" s="66" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E432" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="433" spans="1:5" ht="17">
@@ -13372,10 +13372,10 @@
         <v>5</v>
       </c>
       <c r="D433" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E433" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="434" spans="1:5" ht="17">
@@ -13389,10 +13389,10 @@
         <v>6</v>
       </c>
       <c r="D434" s="66" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E434" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="435" spans="1:5" ht="17">
@@ -13400,16 +13400,16 @@
         <v>443</v>
       </c>
       <c r="B435" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C435">
         <v>1</v>
       </c>
       <c r="D435" s="65" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E435" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="436" spans="1:5" ht="17">
@@ -13417,16 +13417,16 @@
         <v>444</v>
       </c>
       <c r="B436" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C436">
         <v>2</v>
       </c>
       <c r="D436" s="65" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E436" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="437" spans="1:5" ht="17">
@@ -13434,16 +13434,16 @@
         <v>445</v>
       </c>
       <c r="B437" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C437">
         <v>3</v>
       </c>
       <c r="D437" s="65" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E437" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="438" spans="1:5" ht="17">
@@ -13451,16 +13451,16 @@
         <v>446</v>
       </c>
       <c r="B438" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C438">
         <v>4</v>
       </c>
       <c r="D438" s="65" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E438" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="17">
@@ -13468,16 +13468,16 @@
         <v>447</v>
       </c>
       <c r="B439" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C439">
         <v>5</v>
       </c>
       <c r="D439" s="66" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E439" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="440" spans="1:5" ht="17">
@@ -13485,16 +13485,16 @@
         <v>448</v>
       </c>
       <c r="B440" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C440">
         <v>6</v>
       </c>
       <c r="D440" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E440" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="441" spans="1:5" ht="17">
@@ -13502,16 +13502,16 @@
         <v>449</v>
       </c>
       <c r="B441" s="25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C441">
         <v>7</v>
       </c>
       <c r="D441" s="66" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E441" s="67" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="442" spans="1:5" ht="17">
@@ -13519,16 +13519,16 @@
         <v>450</v>
       </c>
       <c r="B442" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C442">
         <v>1</v>
       </c>
       <c r="D442" s="65" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E442" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="443" spans="1:5" ht="17">
@@ -13536,16 +13536,16 @@
         <v>451</v>
       </c>
       <c r="B443" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C443">
         <v>2</v>
       </c>
       <c r="D443" s="65" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E443" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="444" spans="1:5" ht="17">
@@ -13553,16 +13553,16 @@
         <v>452</v>
       </c>
       <c r="B444" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C444">
         <v>3</v>
       </c>
       <c r="D444" s="65" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E444" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="445" spans="1:5" ht="34">
@@ -13570,16 +13570,16 @@
         <v>453</v>
       </c>
       <c r="B445" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C445">
         <v>4</v>
       </c>
       <c r="D445" s="65" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E445" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="446" spans="1:5" ht="17">
@@ -13587,16 +13587,16 @@
         <v>454</v>
       </c>
       <c r="B446" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C446">
         <v>5</v>
       </c>
       <c r="D446" s="65" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E446" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="447" spans="1:5" ht="17">
@@ -13604,16 +13604,16 @@
         <v>455</v>
       </c>
       <c r="B447" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C447">
         <v>6</v>
       </c>
       <c r="D447" s="65" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E447" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="448" spans="1:5" ht="17">
@@ -13621,16 +13621,16 @@
         <v>456</v>
       </c>
       <c r="B448" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C448">
         <v>7</v>
       </c>
       <c r="D448" s="65" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E448" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="449" spans="1:5" ht="17">
@@ -13638,16 +13638,16 @@
         <v>457</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C449">
         <v>8</v>
       </c>
       <c r="D449" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E449" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="450" spans="1:5" ht="17">
@@ -13655,16 +13655,16 @@
         <v>458</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C450">
         <v>9</v>
       </c>
       <c r="D450" s="66" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E450" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="451" spans="1:5" ht="17">
@@ -13672,16 +13672,16 @@
         <v>459</v>
       </c>
       <c r="B451" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C451">
         <v>1</v>
       </c>
       <c r="D451" s="65" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E451" s="67" t="s">
         <v>1024</v>
-      </c>
-      <c r="E451" s="67" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="452" spans="1:5" ht="17">
@@ -13689,16 +13689,16 @@
         <v>460</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C452">
         <v>2</v>
       </c>
       <c r="D452" s="65" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E452" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="453" spans="1:5" ht="17">
@@ -13706,16 +13706,16 @@
         <v>461</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C453">
         <v>3</v>
       </c>
       <c r="D453" s="65" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E453" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="454" spans="1:5" ht="34">
@@ -13723,16 +13723,16 @@
         <v>462</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C454">
         <v>4</v>
       </c>
       <c r="D454" s="65" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E454" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="455" spans="1:5" ht="17">
@@ -13740,16 +13740,16 @@
         <v>463</v>
       </c>
       <c r="B455" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C455">
         <v>5</v>
       </c>
       <c r="D455" s="65" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E455" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="456" spans="1:5" ht="17">
@@ -13757,16 +13757,16 @@
         <v>464</v>
       </c>
       <c r="B456" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C456">
         <v>6</v>
       </c>
       <c r="D456" s="65" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E456" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="457" spans="1:5" ht="17">
@@ -13774,16 +13774,16 @@
         <v>465</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C457">
         <v>7</v>
       </c>
       <c r="D457" s="65" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E457" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="458" spans="1:5" ht="17">
@@ -13791,16 +13791,16 @@
         <v>466</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C458">
         <v>8</v>
       </c>
       <c r="D458" s="66" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E458" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="459" spans="1:5" ht="17">
@@ -13808,16 +13808,16 @@
         <v>467</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C459">
         <v>9</v>
       </c>
       <c r="D459" s="66" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E459" s="67" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -13859,7 +13859,7 @@
         <v>302</v>
       </c>
       <c r="C1" s="148" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D1" s="148" t="s">
         <v>307</v>
@@ -13896,7 +13896,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>78</v>
@@ -13927,7 +13927,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>78</v>
@@ -13955,10 +13955,10 @@
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>79</v>
@@ -14451,10 +14451,10 @@
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F20" s="35" t="s">
         <v>87</v>
@@ -14606,10 +14606,10 @@
       <c r="B25" s="28"/>
       <c r="C25" s="29"/>
       <c r="D25" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>89</v>
@@ -14637,7 +14637,7 @@
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
       <c r="D26" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>364</v>
@@ -14668,7 +14668,7 @@
       <c r="B27" s="28"/>
       <c r="C27" s="38"/>
       <c r="D27" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>365</v>
@@ -14699,7 +14699,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="38"/>
       <c r="D28" s="33" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>395</v>
@@ -14730,10 +14730,10 @@
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
       <c r="D29" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F29" s="35" t="s">
         <v>93</v>
@@ -14885,7 +14885,7 @@
       <c r="B34" s="28"/>
       <c r="C34" s="38"/>
       <c r="D34" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>366</v>
@@ -14916,7 +14916,7 @@
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
       <c r="D35" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>397</v>
@@ -14950,7 +14950,7 @@
         <v>64</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F36" s="35" t="s">
         <v>99</v>
@@ -15040,7 +15040,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="38"/>
       <c r="D39" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>367</v>
@@ -15071,7 +15071,7 @@
       <c r="B40" s="28"/>
       <c r="C40" s="38"/>
       <c r="D40" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>368</v>
@@ -15102,7 +15102,7 @@
       <c r="B41" s="28"/>
       <c r="C41" s="38"/>
       <c r="D41" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>369</v>
@@ -15133,7 +15133,7 @@
       <c r="B42" s="28"/>
       <c r="C42" s="38"/>
       <c r="D42" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>370</v>
@@ -15164,7 +15164,7 @@
       <c r="B43" s="28"/>
       <c r="C43" s="38"/>
       <c r="D43" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>371</v>
@@ -15195,7 +15195,7 @@
       <c r="B44" s="28"/>
       <c r="C44" s="38"/>
       <c r="D44" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>372</v>
@@ -15226,7 +15226,7 @@
       <c r="B45" s="28"/>
       <c r="C45" s="38"/>
       <c r="D45" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E45" s="39" t="s">
         <v>373</v>
@@ -15288,7 +15288,7 @@
       <c r="B47" s="28"/>
       <c r="C47" s="38"/>
       <c r="D47" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>374</v>
@@ -15319,7 +15319,7 @@
       <c r="B48" s="28"/>
       <c r="C48" s="29"/>
       <c r="D48" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E48" s="39" t="s">
         <v>398</v>
@@ -15350,7 +15350,7 @@
       <c r="B49" s="28"/>
       <c r="C49" s="29"/>
       <c r="D49" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>398</v>
@@ -15446,7 +15446,7 @@
         <v>64</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F52" s="35" t="s">
         <v>110</v>
@@ -15567,7 +15567,7 @@
       <c r="B56" s="28"/>
       <c r="C56" s="38"/>
       <c r="D56" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E56" s="39" t="s">
         <v>375</v>
@@ -15598,7 +15598,7 @@
       <c r="B57" s="28"/>
       <c r="C57" s="38"/>
       <c r="D57" s="33" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E57" s="39" t="s">
         <v>399</v>
@@ -15660,7 +15660,7 @@
       <c r="B59" s="28"/>
       <c r="C59" s="38"/>
       <c r="D59" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E59" s="39" t="s">
         <v>376</v>
@@ -15691,7 +15691,7 @@
       <c r="B60" s="28"/>
       <c r="C60" s="38"/>
       <c r="D60" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E60" s="39" t="s">
         <v>377</v>
@@ -15722,7 +15722,7 @@
       <c r="B61" s="28"/>
       <c r="C61" s="38"/>
       <c r="D61" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E61" s="39" t="s">
         <v>378</v>
@@ -15753,7 +15753,7 @@
       <c r="B62" s="28"/>
       <c r="C62" s="38"/>
       <c r="D62" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E62" s="39" t="s">
         <v>379</v>
@@ -15846,7 +15846,7 @@
       <c r="B65" s="28"/>
       <c r="C65" s="29"/>
       <c r="D65" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E65" s="39" t="s">
         <v>380</v>
@@ -15877,10 +15877,10 @@
       <c r="B66" s="28"/>
       <c r="C66" s="29"/>
       <c r="D66" s="33" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F66" s="35" t="s">
         <v>120</v>
@@ -15908,7 +15908,7 @@
       <c r="B67" s="28"/>
       <c r="C67" s="38"/>
       <c r="D67" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E67" s="39" t="s">
         <v>381</v>
@@ -16032,7 +16032,7 @@
       <c r="B71" s="28"/>
       <c r="C71" s="38"/>
       <c r="D71" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E71" s="39" t="s">
         <v>382</v>
@@ -16187,7 +16187,7 @@
       <c r="B76" s="28"/>
       <c r="C76" s="38"/>
       <c r="D76" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E76" s="39" t="s">
         <v>383</v>
@@ -16218,7 +16218,7 @@
       <c r="B77" s="28"/>
       <c r="C77" s="38"/>
       <c r="D77" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E77" s="39" t="s">
         <v>384</v>
@@ -16249,7 +16249,7 @@
       <c r="B78" s="28"/>
       <c r="C78" s="38"/>
       <c r="D78" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>385</v>
@@ -16280,7 +16280,7 @@
       <c r="B79" s="28"/>
       <c r="C79" s="38"/>
       <c r="D79" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E79" s="39" t="s">
         <v>386</v>
@@ -16311,7 +16311,7 @@
       <c r="B80" s="28"/>
       <c r="C80" s="38"/>
       <c r="D80" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E80" s="39" t="s">
         <v>387</v>
@@ -16404,7 +16404,7 @@
       <c r="B83" s="28"/>
       <c r="C83" s="38"/>
       <c r="D83" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E83" s="39" t="s">
         <v>388</v>
@@ -16435,7 +16435,7 @@
       <c r="B84" s="28"/>
       <c r="C84" s="38"/>
       <c r="D84" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E84" s="39" t="s">
         <v>389</v>
@@ -16466,7 +16466,7 @@
       <c r="B85" s="28"/>
       <c r="C85" s="38"/>
       <c r="D85" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E85" s="39" t="s">
         <v>390</v>
@@ -16528,7 +16528,7 @@
       <c r="B87" s="28"/>
       <c r="C87" s="38"/>
       <c r="D87" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E87" s="39" t="s">
         <v>391</v>
@@ -16559,7 +16559,7 @@
       <c r="B88" s="28"/>
       <c r="C88" s="38"/>
       <c r="D88" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E88" s="39" t="s">
         <v>392</v>
@@ -16590,7 +16590,7 @@
       <c r="B89" s="28"/>
       <c r="C89" s="38"/>
       <c r="D89" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E89" s="39" t="s">
         <v>393</v>
@@ -16621,7 +16621,7 @@
       <c r="B90" s="28"/>
       <c r="C90" s="38"/>
       <c r="D90" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E90" s="39" t="s">
         <v>394</v>
@@ -16652,7 +16652,7 @@
       <c r="B91" s="28"/>
       <c r="C91" s="38"/>
       <c r="D91" s="33" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E91" s="39" t="s">
         <v>394</v>
@@ -16686,7 +16686,7 @@
         <v>64</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F92" s="61" t="s">
         <v>861</v>
@@ -16717,7 +16717,7 @@
         <v>64</v>
       </c>
       <c r="E93" s="60" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F93" s="61" t="s">
         <v>866</v>
@@ -17120,9 +17120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="15"/>
@@ -17148,7 +17148,7 @@
         <v>302</v>
       </c>
       <c r="C1" s="153" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D1" s="154" t="s">
         <v>307</v>
@@ -17182,7 +17182,7 @@
       <c r="B2" s="90"/>
       <c r="C2" s="117"/>
       <c r="D2" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>455</v>
@@ -17211,7 +17211,7 @@
       <c r="B3" s="95"/>
       <c r="C3" s="118"/>
       <c r="D3" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E3" s="96" t="s">
         <v>456</v>
@@ -17240,7 +17240,7 @@
       <c r="B4" s="97"/>
       <c r="C4" s="119"/>
       <c r="D4" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E4" s="96" t="s">
         <v>437</v>
@@ -17269,7 +17269,7 @@
       <c r="B5" s="98"/>
       <c r="C5" s="120"/>
       <c r="D5" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E5" s="96" t="s">
         <v>438</v>
@@ -17298,7 +17298,7 @@
       <c r="B6" s="99"/>
       <c r="C6" s="121"/>
       <c r="D6" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E6" s="96" t="s">
         <v>439</v>
@@ -17327,7 +17327,7 @@
       <c r="B7" s="100"/>
       <c r="C7" s="122"/>
       <c r="D7" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E7" s="96" t="s">
         <v>440</v>
@@ -17356,7 +17356,7 @@
       <c r="B8" s="101"/>
       <c r="C8" s="123"/>
       <c r="D8" s="29" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E8" s="96" t="s">
         <v>441</v>
@@ -17385,7 +17385,7 @@
       <c r="B9" s="97"/>
       <c r="C9" s="119"/>
       <c r="D9" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E9" s="96" t="s">
         <v>442</v>
@@ -17414,7 +17414,7 @@
       <c r="B10" s="101"/>
       <c r="C10" s="123"/>
       <c r="D10" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E10" s="96" t="s">
         <v>443</v>
@@ -17443,7 +17443,7 @@
       <c r="B11" s="99"/>
       <c r="C11" s="121"/>
       <c r="D11" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E11" s="96" t="s">
         <v>444</v>
@@ -17472,7 +17472,7 @@
       <c r="B12" s="99"/>
       <c r="C12" s="121"/>
       <c r="D12" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E12" s="96" t="s">
         <v>445</v>
@@ -17501,7 +17501,7 @@
       <c r="B13" s="101"/>
       <c r="C13" s="123"/>
       <c r="D13" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E13" s="96" t="s">
         <v>446</v>
@@ -17530,7 +17530,7 @@
       <c r="B14" s="99"/>
       <c r="C14" s="121"/>
       <c r="D14" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E14" s="96" t="s">
         <v>447</v>
@@ -17559,7 +17559,7 @@
       <c r="B15" s="101"/>
       <c r="C15" s="123"/>
       <c r="D15" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E15" s="96" t="s">
         <v>448</v>
@@ -17588,7 +17588,7 @@
       <c r="B16" s="99"/>
       <c r="C16" s="121"/>
       <c r="D16" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>449</v>
@@ -17617,7 +17617,7 @@
       <c r="B17" s="97"/>
       <c r="C17" s="119"/>
       <c r="D17" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E17" s="96" t="s">
         <v>450</v>
@@ -17646,7 +17646,7 @@
       <c r="B18" s="101"/>
       <c r="C18" s="123"/>
       <c r="D18" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E18" s="96" t="s">
         <v>451</v>
@@ -17675,7 +17675,7 @@
       <c r="B19" s="95"/>
       <c r="C19" s="118"/>
       <c r="D19" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E19" s="96" t="s">
         <v>452</v>
@@ -17704,10 +17704,10 @@
       <c r="B20" s="95"/>
       <c r="C20" s="118"/>
       <c r="D20" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E20" s="88" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F20" s="102" t="s">
         <v>150</v>
@@ -17735,7 +17735,7 @@
       <c r="B21" s="95"/>
       <c r="C21" s="118"/>
       <c r="D21" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E21" s="96" t="s">
         <v>414</v>
@@ -17766,7 +17766,7 @@
       <c r="B22" s="95"/>
       <c r="C22" s="124"/>
       <c r="D22" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E22" s="96" t="s">
         <v>415</v>
@@ -17797,7 +17797,7 @@
       <c r="B23" s="95"/>
       <c r="C23" s="124"/>
       <c r="D23" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E23" s="103" t="s">
         <v>406</v>
@@ -17826,7 +17826,7 @@
       <c r="B24" s="95"/>
       <c r="C24" s="118"/>
       <c r="D24" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E24" s="96" t="s">
         <v>413</v>
@@ -17857,7 +17857,7 @@
       <c r="B25" s="97"/>
       <c r="C25" s="125"/>
       <c r="D25" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E25" s="96" t="s">
         <v>416</v>
@@ -17888,7 +17888,7 @@
       <c r="B26" s="99"/>
       <c r="C26" s="126"/>
       <c r="D26" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E26" s="96" t="s">
         <v>417</v>
@@ -17919,7 +17919,7 @@
       <c r="B27" s="101"/>
       <c r="C27" s="123"/>
       <c r="D27" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E27" s="96" t="s">
         <v>418</v>
@@ -17950,7 +17950,7 @@
       <c r="B28" s="99"/>
       <c r="C28" s="121"/>
       <c r="D28" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E28" s="96" t="s">
         <v>418</v>
@@ -17981,7 +17981,7 @@
       <c r="B29" s="101"/>
       <c r="C29" s="127"/>
       <c r="D29" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E29" s="96" t="s">
         <v>419</v>
@@ -18012,7 +18012,7 @@
       <c r="B30" s="97"/>
       <c r="C30" s="125"/>
       <c r="D30" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E30" s="96" t="s">
         <v>418</v>
@@ -18043,10 +18043,10 @@
       <c r="B31" s="95"/>
       <c r="C31" s="124"/>
       <c r="D31" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F31" s="102" t="s">
         <v>160</v>
@@ -18074,7 +18074,7 @@
       <c r="B32" s="105"/>
       <c r="C32" s="128"/>
       <c r="D32" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>425</v>
@@ -18103,7 +18103,7 @@
       <c r="B33" s="115"/>
       <c r="C33" s="129"/>
       <c r="D33" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E33" s="96" t="s">
         <v>426</v>
@@ -18134,7 +18134,7 @@
       <c r="B34" s="114"/>
       <c r="C34" s="129"/>
       <c r="D34" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E34" s="96" t="s">
         <v>427</v>
@@ -18165,7 +18165,7 @@
       <c r="B35" s="114"/>
       <c r="C35" s="129"/>
       <c r="D35" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E35" s="96" t="s">
         <v>428</v>
@@ -18196,7 +18196,7 @@
       <c r="B36" s="101"/>
       <c r="C36" s="127"/>
       <c r="D36" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E36" s="96" t="s">
         <v>429</v>
@@ -18227,7 +18227,7 @@
       <c r="B37" s="99"/>
       <c r="C37" s="126"/>
       <c r="D37" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E37" s="96" t="s">
         <v>420</v>
@@ -18258,7 +18258,7 @@
       <c r="B38" s="95"/>
       <c r="C38" s="124"/>
       <c r="D38" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E38" s="96" t="s">
         <v>453</v>
@@ -18289,7 +18289,7 @@
       <c r="B39" s="97"/>
       <c r="C39" s="125"/>
       <c r="D39" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E39" s="96" t="s">
         <v>454</v>
@@ -18320,10 +18320,10 @@
       <c r="B40" s="113"/>
       <c r="C40" s="129"/>
       <c r="D40" s="29" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E40" s="103" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F40" s="92" t="s">
         <v>169</v>
@@ -18347,7 +18347,7 @@
       <c r="B41" s="101"/>
       <c r="C41" s="123"/>
       <c r="D41" s="32" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E41" s="103" t="s">
         <v>424</v>
@@ -18428,7 +18428,7 @@
       <c r="B44" s="106"/>
       <c r="C44" s="130"/>
       <c r="D44" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E44" s="103" t="s">
         <v>455</v>
@@ -18444,7 +18444,7 @@
         <v>657</v>
       </c>
       <c r="J44" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K44" s="94" t="s">
         <v>2</v>
@@ -18473,7 +18473,7 @@
         <v>679</v>
       </c>
       <c r="J45" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K45" s="94" t="s">
         <v>2</v>
@@ -18486,7 +18486,7 @@
       <c r="B46" s="107"/>
       <c r="C46" s="131"/>
       <c r="D46" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E46" s="103" t="s">
         <v>456</v>
@@ -18502,7 +18502,7 @@
         <v>659</v>
       </c>
       <c r="J46" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K46" s="94" t="s">
         <v>2</v>
@@ -18515,7 +18515,7 @@
       <c r="B47" s="108"/>
       <c r="C47" s="132"/>
       <c r="D47" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>430</v>
@@ -18531,7 +18531,7 @@
         <v>681</v>
       </c>
       <c r="J47" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K47" s="94" t="s">
         <v>2</v>
@@ -18544,7 +18544,7 @@
       <c r="B48" s="108"/>
       <c r="C48" s="132"/>
       <c r="D48" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E48" s="103" t="s">
         <v>437</v>
@@ -18560,7 +18560,7 @@
         <v>661</v>
       </c>
       <c r="J48" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K48" s="94" t="s">
         <v>2</v>
@@ -18573,11 +18573,11 @@
       <c r="B49" s="109"/>
       <c r="C49" s="133"/>
       <c r="D49" s="38" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E49" s="92"/>
       <c r="F49" s="92" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G49" s="92" t="s">
         <v>37</v>
@@ -18587,7 +18587,7 @@
         <v>686</v>
       </c>
       <c r="J49" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K49" s="94" t="s">
         <v>2</v>
@@ -18600,7 +18600,7 @@
       <c r="B50" s="107"/>
       <c r="C50" s="131"/>
       <c r="D50" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E50" s="103" t="s">
         <v>442</v>
@@ -18613,10 +18613,10 @@
       </c>
       <c r="H50" s="92"/>
       <c r="I50" s="93" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="J50" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K50" s="94" t="s">
         <v>2</v>
@@ -18629,7 +18629,7 @@
       <c r="B51" s="108"/>
       <c r="C51" s="132"/>
       <c r="D51" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E51" s="39" t="s">
         <v>431</v>
@@ -18645,7 +18645,7 @@
         <v>688</v>
       </c>
       <c r="J51" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K51" s="94" t="s">
         <v>2</v>
@@ -18658,7 +18658,7 @@
       <c r="B52" s="107"/>
       <c r="C52" s="131"/>
       <c r="D52" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E52" s="103" t="s">
         <v>451</v>
@@ -18674,7 +18674,7 @@
         <v>675</v>
       </c>
       <c r="J52" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K52" s="94" t="s">
         <v>2</v>
@@ -18690,7 +18690,7 @@
         <v>64</v>
       </c>
       <c r="E53" s="103" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F53" s="92" t="s">
         <v>173</v>
@@ -18703,7 +18703,7 @@
         <v>705</v>
       </c>
       <c r="J53" s="93" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="K53" s="94" t="s">
         <v>2</v>
@@ -18774,7 +18774,7 @@
       <c r="B56" s="107"/>
       <c r="C56" s="131"/>
       <c r="D56" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E56" s="103" t="s">
         <v>432</v>
@@ -18832,7 +18832,7 @@
       <c r="B58" s="97"/>
       <c r="C58" s="125"/>
       <c r="D58" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E58" s="96" t="s">
         <v>455</v>
@@ -18848,7 +18848,7 @@
         <v>657</v>
       </c>
       <c r="J58" s="110" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K58" s="111" t="s">
         <v>6</v>
@@ -18861,7 +18861,7 @@
       <c r="B59" s="107"/>
       <c r="C59" s="131"/>
       <c r="D59" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E59" s="96" t="s">
         <v>421</v>
@@ -18877,7 +18877,7 @@
         <v>679</v>
       </c>
       <c r="J59" s="110" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K59" s="111" t="s">
         <v>6</v>
@@ -18890,7 +18890,7 @@
       <c r="B60" s="107"/>
       <c r="C60" s="131"/>
       <c r="D60" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E60" s="96" t="s">
         <v>456</v>
@@ -18906,7 +18906,7 @@
         <v>659</v>
       </c>
       <c r="J60" s="110" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K60" s="111" t="s">
         <v>6</v>
@@ -18919,7 +18919,7 @@
       <c r="B61" s="107"/>
       <c r="C61" s="131"/>
       <c r="D61" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E61" s="96" t="s">
         <v>414</v>
@@ -18935,7 +18935,7 @@
         <v>681</v>
       </c>
       <c r="J61" s="110" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K61" s="111" t="s">
         <v>6</v>
@@ -18948,7 +18948,7 @@
       <c r="B62" s="112"/>
       <c r="C62" s="134"/>
       <c r="D62" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="96" t="s">
         <v>433</v>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="H62" s="88"/>
       <c r="I62" s="110" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J62" s="110" t="s">
         <v>728</v>
@@ -18977,7 +18977,7 @@
       <c r="B63" s="97"/>
       <c r="C63" s="125"/>
       <c r="D63" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E63" s="96" t="s">
         <v>422</v>
@@ -19006,7 +19006,7 @@
       <c r="B64" s="97"/>
       <c r="C64" s="119"/>
       <c r="D64" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E64" s="96" t="s">
         <v>451</v>
@@ -19035,7 +19035,7 @@
       <c r="B65" s="97"/>
       <c r="C65" s="125"/>
       <c r="D65" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E65" s="96" t="s">
         <v>429</v>
@@ -19064,7 +19064,7 @@
       <c r="B66" s="97"/>
       <c r="C66" s="119"/>
       <c r="D66" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E66" s="96" t="s">
         <v>450</v>
@@ -19093,7 +19093,7 @@
       <c r="B67" s="97"/>
       <c r="C67" s="119"/>
       <c r="D67" s="29" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E67" s="96" t="s">
         <v>434</v>
@@ -19122,7 +19122,7 @@
       <c r="B68" s="97"/>
       <c r="C68" s="119"/>
       <c r="D68" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E68" s="96" t="s">
         <v>445</v>
@@ -19151,7 +19151,7 @@
       <c r="B69" s="97"/>
       <c r="C69" s="125"/>
       <c r="D69" s="38" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E69" s="96" t="s">
         <v>425</v>
@@ -19180,7 +19180,7 @@
       <c r="B70" s="108"/>
       <c r="C70" s="135"/>
       <c r="D70" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E70" s="96" t="s">
         <v>449</v>
@@ -19209,7 +19209,7 @@
       <c r="B71" s="97"/>
       <c r="C71" s="119"/>
       <c r="D71" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E71" s="96" t="s">
         <v>442</v>
@@ -19238,7 +19238,7 @@
       <c r="B72" s="97"/>
       <c r="C72" s="119"/>
       <c r="D72" s="29" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E72" s="96" t="s">
         <v>416</v>
@@ -19267,7 +19267,7 @@
       <c r="B73" s="97"/>
       <c r="C73" s="119"/>
       <c r="D73" s="29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E73" s="96" t="s">
         <v>437</v>
@@ -19325,7 +19325,7 @@
       <c r="B75" s="97"/>
       <c r="C75" s="119"/>
       <c r="D75" s="29" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E75" s="96" t="s">
         <v>435</v>
@@ -19354,10 +19354,10 @@
       <c r="B76" s="95"/>
       <c r="C76" s="118"/>
       <c r="D76" s="29" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E76" s="96" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F76" s="88" t="s">
         <v>185</v>
@@ -19381,7 +19381,7 @@
       <c r="B77" s="97"/>
       <c r="C77" s="119"/>
       <c r="D77" s="29" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E77" s="96" t="s">
         <v>436</v>
@@ -19410,7 +19410,7 @@
       <c r="B78" s="97"/>
       <c r="C78" s="119"/>
       <c r="D78" s="29" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E78" s="96" t="s">
         <v>423</v>
@@ -19440,15 +19440,15 @@
         <v>920</v>
       </c>
       <c r="E79" s="85" t="s">
+        <v>939</v>
+      </c>
+      <c r="F79" s="86" t="s">
         <v>940</v>
-      </c>
-      <c r="F79" s="86" t="s">
-        <v>941</v>
       </c>
       <c r="G79" s="87"/>
       <c r="H79" s="30"/>
       <c r="I79" s="30" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J79" s="30" t="s">
         <v>871</v>
@@ -19467,15 +19467,15 @@
         <v>920</v>
       </c>
       <c r="E80" s="85" t="s">
+        <v>942</v>
+      </c>
+      <c r="F80" s="86" t="s">
         <v>943</v>
-      </c>
-      <c r="F80" s="86" t="s">
-        <v>944</v>
       </c>
       <c r="G80" s="87"/>
       <c r="H80" s="87"/>
       <c r="I80" s="30" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J80" s="30" t="s">
         <v>875</v>
@@ -19494,15 +19494,15 @@
         <v>920</v>
       </c>
       <c r="E81" s="85" t="s">
+        <v>945</v>
+      </c>
+      <c r="F81" s="86" t="s">
         <v>946</v>
-      </c>
-      <c r="F81" s="86" t="s">
-        <v>947</v>
       </c>
       <c r="G81" s="87"/>
       <c r="H81" s="87"/>
       <c r="I81" s="30" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J81" s="30" t="s">
         <v>879</v>
@@ -19521,15 +19521,15 @@
         <v>920</v>
       </c>
       <c r="E82" s="85" t="s">
+        <v>948</v>
+      </c>
+      <c r="F82" s="86" t="s">
         <v>949</v>
-      </c>
-      <c r="F82" s="86" t="s">
-        <v>950</v>
       </c>
       <c r="G82" s="87"/>
       <c r="H82" s="87"/>
       <c r="I82" s="30" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J82" s="30" t="s">
         <v>883</v>
@@ -19551,12 +19551,12 @@
         <v>926</v>
       </c>
       <c r="F83" s="86" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G83" s="87"/>
       <c r="H83" s="87"/>
       <c r="I83" s="30" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J83" s="30" t="s">
         <v>887</v>
@@ -19575,15 +19575,15 @@
         <v>920</v>
       </c>
       <c r="E84" s="85" t="s">
+        <v>953</v>
+      </c>
+      <c r="F84" s="86" t="s">
         <v>954</v>
-      </c>
-      <c r="F84" s="86" t="s">
-        <v>955</v>
       </c>
       <c r="G84" s="87"/>
       <c r="H84" s="87"/>
       <c r="I84" s="30" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J84" s="30" t="s">
         <v>891</v>
@@ -19605,12 +19605,12 @@
         <v>928</v>
       </c>
       <c r="F85" s="86" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G85" s="87"/>
       <c r="H85" s="87"/>
       <c r="I85" s="30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J85" s="30" t="s">
         <v>895</v>
@@ -19629,15 +19629,15 @@
         <v>920</v>
       </c>
       <c r="E86" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="F86" s="86" t="s">
         <v>959</v>
-      </c>
-      <c r="F86" s="86" t="s">
-        <v>960</v>
       </c>
       <c r="G86" s="87"/>
       <c r="H86" s="87"/>
       <c r="I86" s="30" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J86" s="30" t="s">
         <v>899</v>
@@ -19656,15 +19656,15 @@
         <v>920</v>
       </c>
       <c r="E87" s="85" t="s">
+        <v>961</v>
+      </c>
+      <c r="F87" s="86" t="s">
         <v>962</v>
-      </c>
-      <c r="F87" s="86" t="s">
-        <v>963</v>
       </c>
       <c r="G87" s="87"/>
       <c r="H87" s="87"/>
       <c r="I87" s="30" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J87" s="30" t="s">
         <v>903</v>
@@ -19686,12 +19686,12 @@
         <v>931</v>
       </c>
       <c r="F88" s="86" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G88" s="87"/>
       <c r="H88" s="87"/>
       <c r="I88" s="30" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J88" s="30" t="s">
         <v>907</v>
@@ -19707,23 +19707,23 @@
       <c r="B89" s="30"/>
       <c r="C89" s="136"/>
       <c r="D89" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="E89" s="85" t="s">
         <v>967</v>
       </c>
-      <c r="E89" s="85" t="s">
+      <c r="F89" s="26" t="s">
         <v>968</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>969</v>
       </c>
       <c r="G89" s="30" t="s">
         <v>30</v>
       </c>
       <c r="H89" s="30"/>
       <c r="I89" s="30" t="s">
+        <v>969</v>
+      </c>
+      <c r="J89" s="30" t="s">
         <v>970</v>
-      </c>
-      <c r="J89" s="30" t="s">
-        <v>971</v>
       </c>
       <c r="K89" s="83" t="s">
         <v>6</v>
@@ -19736,23 +19736,23 @@
       <c r="B90" s="84"/>
       <c r="C90" s="136"/>
       <c r="D90" s="30" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G90" s="30" t="s">
         <v>34</v>
       </c>
       <c r="H90" s="87"/>
       <c r="I90" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="J90" s="30" t="s">
         <v>972</v>
-      </c>
-      <c r="J90" s="30" t="s">
-        <v>973</v>
       </c>
       <c r="K90" s="83" t="s">
         <v>6</v>
@@ -19765,21 +19765,21 @@
       <c r="B91" s="84"/>
       <c r="C91" s="137"/>
       <c r="D91" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E91" s="30" t="s">
+        <v>973</v>
+      </c>
+      <c r="F91" s="26" t="s">
         <v>974</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>975</v>
       </c>
       <c r="G91" s="87"/>
       <c r="H91" s="30"/>
       <c r="I91" s="30" t="s">
+        <v>975</v>
+      </c>
+      <c r="J91" s="30" t="s">
         <v>976</v>
-      </c>
-      <c r="J91" s="30" t="s">
-        <v>977</v>
       </c>
       <c r="K91" s="83" t="s">
         <v>6</v>
@@ -19792,21 +19792,21 @@
       <c r="B92" s="84"/>
       <c r="C92" s="137"/>
       <c r="D92" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G92" s="87"/>
       <c r="H92" s="30"/>
       <c r="I92" s="30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J92" s="30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="K92" s="83" t="s">
         <v>6</v>
@@ -19819,23 +19819,23 @@
       <c r="B93" s="84"/>
       <c r="C93" s="136"/>
       <c r="D93" s="88" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>455</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G93" s="87" t="s">
         <v>0</v>
       </c>
       <c r="H93" s="87"/>
       <c r="I93" s="30" t="s">
+        <v>981</v>
+      </c>
+      <c r="J93" s="30" t="s">
         <v>982</v>
-      </c>
-      <c r="J93" s="30" t="s">
-        <v>983</v>
       </c>
       <c r="K93" s="83" t="s">
         <v>6</v>
@@ -19848,23 +19848,23 @@
       <c r="B94" s="84"/>
       <c r="C94" s="136"/>
       <c r="D94" s="88" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E94" s="30" t="s">
         <v>456</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G94" s="87" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="87"/>
       <c r="I94" s="30" t="s">
+        <v>984</v>
+      </c>
+      <c r="J94" s="30" t="s">
         <v>985</v>
-      </c>
-      <c r="J94" s="30" t="s">
-        <v>986</v>
       </c>
       <c r="K94" s="83" t="s">
         <v>6</v>
@@ -19877,21 +19877,21 @@
       <c r="B95" s="84"/>
       <c r="C95" s="137"/>
       <c r="D95" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E95" s="30" t="s">
+        <v>986</v>
+      </c>
+      <c r="F95" s="86" t="s">
         <v>987</v>
-      </c>
-      <c r="F95" s="86" t="s">
-        <v>988</v>
       </c>
       <c r="G95" s="87"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30" t="s">
+        <v>988</v>
+      </c>
+      <c r="J95" s="30" t="s">
         <v>989</v>
-      </c>
-      <c r="J95" s="30" t="s">
-        <v>990</v>
       </c>
       <c r="K95" s="83" t="s">
         <v>6</v>
@@ -19904,21 +19904,21 @@
       <c r="B96" s="84"/>
       <c r="C96" s="137"/>
       <c r="D96" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E96" s="30" t="s">
+        <v>990</v>
+      </c>
+      <c r="F96" s="86" t="s">
         <v>991</v>
-      </c>
-      <c r="F96" s="86" t="s">
-        <v>992</v>
       </c>
       <c r="G96" s="87"/>
       <c r="H96" s="87"/>
       <c r="I96" s="30" t="s">
+        <v>992</v>
+      </c>
+      <c r="J96" s="30" t="s">
         <v>993</v>
-      </c>
-      <c r="J96" s="30" t="s">
-        <v>994</v>
       </c>
       <c r="K96" s="83" t="s">
         <v>6</v>
@@ -19931,21 +19931,21 @@
       <c r="B97" s="84"/>
       <c r="C97" s="137"/>
       <c r="D97" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E97" s="30" t="s">
+        <v>994</v>
+      </c>
+      <c r="F97" s="86" t="s">
         <v>995</v>
-      </c>
-      <c r="F97" s="86" t="s">
-        <v>996</v>
       </c>
       <c r="G97" s="87"/>
       <c r="H97" s="87"/>
       <c r="I97" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="J97" s="30" t="s">
         <v>997</v>
-      </c>
-      <c r="J97" s="30" t="s">
-        <v>998</v>
       </c>
       <c r="K97" s="83" t="s">
         <v>6</v>
@@ -19958,21 +19958,21 @@
       <c r="B98" s="84"/>
       <c r="C98" s="137"/>
       <c r="D98" s="30" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F98" s="86" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G98" s="87"/>
       <c r="H98" s="87"/>
       <c r="I98" s="30" t="s">
+        <v>999</v>
+      </c>
+      <c r="J98" s="30" t="s">
         <v>1000</v>
-      </c>
-      <c r="J98" s="30" t="s">
-        <v>1001</v>
       </c>
       <c r="K98" s="83" t="s">
         <v>6</v>
@@ -19985,18 +19985,18 @@
       <c r="B99" s="89"/>
       <c r="C99" s="138"/>
       <c r="D99" s="88" t="s">
-        <v>934</v>
-      </c>
-      <c r="E99" s="83" t="s">
-        <v>1002</v>
+        <v>921</v>
+      </c>
+      <c r="E99" s="186" t="s">
+        <v>932</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G99" s="83"/>
       <c r="H99" s="30"/>
       <c r="I99" s="30" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J99" s="30" t="s">
         <v>913</v>
@@ -20012,18 +20012,18 @@
       <c r="B100" s="89"/>
       <c r="C100" s="138"/>
       <c r="D100" s="88" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E100" s="83" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G100" s="83"/>
       <c r="H100" s="87"/>
       <c r="I100" s="30" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J100" s="30" t="s">
         <v>918</v>
@@ -20043,9 +20043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AB139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
@@ -20066,7 +20066,7 @@
         <v>302</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D1" s="177" t="s">
         <v>307</v>
@@ -20088,13 +20088,13 @@
       </c>
       <c r="K1" s="1"/>
       <c r="N1" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="P1" s="179" t="s">
         <v>1256</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="P1" s="179" t="s">
-        <v>1258</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -20114,7 +20114,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C2" s="181">
         <v>45175.44425925926</v>
@@ -20122,8 +20122,8 @@
       <c r="D2" s="185" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="186" t="s">
-        <v>1270</v>
+      <c r="E2" s="9" t="s">
+        <v>1268</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>187</v>
@@ -20139,7 +20139,7 @@
       </c>
       <c r="K2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="182"/>
@@ -20161,7 +20161,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C3" s="183">
         <v>45175.444421296299</v>
@@ -20170,7 +20170,7 @@
         <v>403</v>
       </c>
       <c r="E3" s="185" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>189</v>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="K3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="182"/>
@@ -20208,7 +20208,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C4" s="181">
         <v>45175.444571759261</v>
@@ -20217,7 +20217,7 @@
         <v>403</v>
       </c>
       <c r="E4" s="185" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>191</v>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="K4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="182"/>
@@ -20255,7 +20255,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C5" s="181">
         <v>45175.444733796299</v>
@@ -20264,7 +20264,7 @@
         <v>403</v>
       </c>
       <c r="E5" s="185" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>193</v>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="K5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="182"/>
@@ -20302,7 +20302,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C6" s="181">
         <v>45175.444895833331</v>
@@ -20311,7 +20311,7 @@
         <v>403</v>
       </c>
       <c r="E6" s="185" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>195</v>
@@ -20327,7 +20327,7 @@
       </c>
       <c r="K6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="182"/>
@@ -20349,7 +20349,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C7" s="181">
         <v>45175.4450462963</v>
@@ -20358,7 +20358,7 @@
         <v>403</v>
       </c>
       <c r="E7" s="185" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>197</v>
@@ -20374,7 +20374,7 @@
       </c>
       <c r="K7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O7" s="4"/>
       <c r="P7" s="182"/>
@@ -20396,7 +20396,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C8" s="181">
         <v>45175.445208333331</v>
@@ -20405,7 +20405,7 @@
         <v>403</v>
       </c>
       <c r="E8" s="185" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>199</v>
@@ -20421,7 +20421,7 @@
       </c>
       <c r="K8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="182"/>
@@ -20443,7 +20443,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C9" s="181">
         <v>45175.445370370369</v>
@@ -20452,7 +20452,7 @@
         <v>403</v>
       </c>
       <c r="E9" s="185" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>201</v>
@@ -20468,7 +20468,7 @@
       </c>
       <c r="K9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="182"/>
@@ -20490,7 +20490,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C10" s="181">
         <v>45175.445532407408</v>
@@ -20499,7 +20499,7 @@
         <v>403</v>
       </c>
       <c r="E10" s="185" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>203</v>
@@ -20515,7 +20515,7 @@
       </c>
       <c r="K10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="182"/>
@@ -24079,7 +24079,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.83203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="9" customWidth="1"/>
@@ -24096,7 +24096,7 @@
         <v>302</v>
       </c>
       <c r="C1" s="158" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D1" s="158" t="s">
         <v>307</v>
@@ -24136,7 +24136,7 @@
       <c r="B2" s="23"/>
       <c r="C2" s="78"/>
       <c r="D2" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>457</v>
@@ -24173,7 +24173,7 @@
       <c r="B3" s="18"/>
       <c r="C3" s="79"/>
       <c r="D3" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>458</v>
@@ -24210,7 +24210,7 @@
       <c r="B4" s="21"/>
       <c r="C4" s="80"/>
       <c r="D4" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>459</v>
@@ -24247,7 +24247,7 @@
       <c r="B5" s="22"/>
       <c r="C5" s="81"/>
       <c r="D5" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>460</v>
@@ -24284,7 +24284,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="77"/>
       <c r="D6" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>461</v>
@@ -24321,7 +24321,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="77"/>
       <c r="D7" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>462</v>
@@ -24358,7 +24358,7 @@
       <c r="B8" s="18"/>
       <c r="C8" s="77"/>
       <c r="D8" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>463</v>
@@ -24395,7 +24395,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="77"/>
       <c r="D9" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>464</v>
@@ -24432,7 +24432,7 @@
       <c r="B10" s="20"/>
       <c r="C10" s="82"/>
       <c r="D10" s="18" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>465</v>
@@ -24470,10 +24470,10 @@
         <v>302</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D11" s="177" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>312</v>
@@ -24492,13 +24492,13 @@
       </c>
       <c r="K11" s="1"/>
       <c r="N11" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="P11" s="179" t="s">
         <v>1256</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>1257</v>
-      </c>
-      <c r="P11" s="179" t="s">
-        <v>1258</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -24515,16 +24515,16 @@
     </row>
     <row r="12" spans="1:28" ht="30" customHeight="1">
       <c r="B12" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C12" s="181">
         <v>45175.44425925926</v>
       </c>
       <c r="D12" s="185" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E12" s="186" t="s">
-        <v>1270</v>
+        <v>1267</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1268</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>187</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="K12" s="5"/>
       <c r="N12" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="182"/>
@@ -24559,16 +24559,16 @@
     </row>
     <row r="13" spans="1:28" ht="30" customHeight="1">
       <c r="B13" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C13" s="183">
         <v>45175.444421296299</v>
       </c>
       <c r="D13" s="185" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E13" s="185" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>189</v>
@@ -24584,7 +24584,7 @@
       </c>
       <c r="K13" s="5"/>
       <c r="N13" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="182"/>
@@ -24603,16 +24603,16 @@
     </row>
     <row r="14" spans="1:28" ht="30" customHeight="1">
       <c r="B14" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C14" s="181">
         <v>45175.444571759261</v>
       </c>
       <c r="D14" s="185" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E14" s="185" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>191</v>
@@ -24628,7 +24628,7 @@
       </c>
       <c r="K14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="182"/>
@@ -24647,16 +24647,16 @@
     </row>
     <row r="15" spans="1:28" ht="30" customHeight="1">
       <c r="B15" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C15" s="181">
         <v>45175.444733796299</v>
       </c>
       <c r="D15" s="185" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E15" s="185" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>193</v>
@@ -24672,7 +24672,7 @@
       </c>
       <c r="K15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="182"/>
@@ -24691,16 +24691,16 @@
     </row>
     <row r="16" spans="1:28" ht="30" customHeight="1">
       <c r="B16" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C16" s="181">
         <v>45175.444895833331</v>
       </c>
       <c r="D16" s="185" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E16" s="185" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>195</v>
@@ -24716,7 +24716,7 @@
       </c>
       <c r="K16" s="5"/>
       <c r="N16" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="182"/>
@@ -24735,16 +24735,16 @@
     </row>
     <row r="17" spans="2:28" ht="30" customHeight="1">
       <c r="B17" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C17" s="181">
         <v>45175.4450462963</v>
       </c>
       <c r="D17" s="185" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E17" s="185" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>197</v>
@@ -24760,7 +24760,7 @@
       </c>
       <c r="K17" s="5"/>
       <c r="N17" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="182"/>
@@ -24779,16 +24779,16 @@
     </row>
     <row r="18" spans="2:28" ht="30" customHeight="1">
       <c r="B18" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C18" s="181">
         <v>45175.445208333331</v>
       </c>
       <c r="D18" s="185" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E18" s="185" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>199</v>
@@ -24804,7 +24804,7 @@
       </c>
       <c r="K18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="182"/>
@@ -24823,16 +24823,16 @@
     </row>
     <row r="19" spans="2:28" ht="30" customHeight="1">
       <c r="B19" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C19" s="181">
         <v>45175.445370370369</v>
       </c>
       <c r="D19" s="185" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E19" s="185" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>201</v>
@@ -24848,7 +24848,7 @@
       </c>
       <c r="K19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O19" s="4"/>
       <c r="P19" s="182"/>
@@ -24867,16 +24867,16 @@
     </row>
     <row r="20" spans="2:28" ht="30" customHeight="1">
       <c r="B20" s="180" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C20" s="181">
         <v>45175.445532407408</v>
       </c>
       <c r="D20" s="185" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E20" s="185" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>203</v>
@@ -24892,7 +24892,7 @@
       </c>
       <c r="K20" s="5"/>
       <c r="N20" s="5" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="182"/>
@@ -28720,7 +28720,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="14"/>
@@ -28740,7 +28740,7 @@
         <v>302</v>
       </c>
       <c r="C1" s="160" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D1" s="160" t="s">
         <v>307</v>
@@ -28771,7 +28771,7 @@
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E2" s="45" t="s">
         <v>477</v>
@@ -28799,7 +28799,7 @@
       <c r="B3" s="51"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>479</v>
@@ -28827,7 +28827,7 @@
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
       <c r="D4" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E4" s="45" t="s">
         <v>455</v>
@@ -28855,7 +28855,7 @@
       <c r="B5" s="51"/>
       <c r="C5" s="52"/>
       <c r="D5" s="52" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>396</v>
@@ -28883,7 +28883,7 @@
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>480</v>
@@ -28911,7 +28911,7 @@
       <c r="B7" s="51"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E7" s="45" t="s">
         <v>456</v>
@@ -28939,7 +28939,7 @@
       <c r="B8" s="51"/>
       <c r="C8" s="52"/>
       <c r="D8" s="52" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E8" s="45" t="s">
         <v>397</v>
@@ -28967,7 +28967,7 @@
       <c r="B9" s="51"/>
       <c r="C9" s="52"/>
       <c r="D9" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E9" s="45" t="s">
         <v>437</v>
@@ -28995,7 +28995,7 @@
       <c r="B10" s="51"/>
       <c r="C10" s="52"/>
       <c r="D10" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E10" s="45" t="s">
         <v>438</v>
@@ -29023,7 +29023,7 @@
       <c r="B11" s="51"/>
       <c r="C11" s="52"/>
       <c r="D11" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E11" s="45" t="s">
         <v>439</v>
@@ -29051,7 +29051,7 @@
       <c r="B12" s="51"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>440</v>
@@ -29079,7 +29079,7 @@
       <c r="B13" s="51"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>441</v>
@@ -29107,7 +29107,7 @@
       <c r="B14" s="51"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>442</v>
@@ -29135,7 +29135,7 @@
       <c r="B15" s="51"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>478</v>
@@ -29163,7 +29163,7 @@
       <c r="B16" s="51"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>443</v>
@@ -29191,7 +29191,7 @@
       <c r="B17" s="51"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>444</v>
@@ -29219,7 +29219,7 @@
       <c r="B18" s="51"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>445</v>
@@ -29247,7 +29247,7 @@
       <c r="B19" s="51"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>446</v>
@@ -29275,7 +29275,7 @@
       <c r="B20" s="51"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>447</v>
@@ -29303,7 +29303,7 @@
       <c r="B21" s="51"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>448</v>
@@ -29331,7 +29331,7 @@
       <c r="B22" s="51"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>449</v>
@@ -29359,7 +29359,7 @@
       <c r="B23" s="51"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>450</v>
@@ -29387,7 +29387,7 @@
       <c r="B24" s="51"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>451</v>
@@ -29415,7 +29415,7 @@
       <c r="B25" s="51"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>452</v>
@@ -29443,11 +29443,11 @@
       <c r="B26" s="53"/>
       <c r="C26" s="73"/>
       <c r="D26" s="55" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="42" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>30</v>
@@ -29467,11 +29467,11 @@
       <c r="B27" s="53"/>
       <c r="C27" s="73"/>
       <c r="D27" s="55" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E27" s="54"/>
       <c r="F27" s="48" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>34</v>
@@ -29491,7 +29491,7 @@
       <c r="B28" s="53"/>
       <c r="C28" s="73"/>
       <c r="D28" s="55" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="8" t="s">
@@ -29517,7 +29517,7 @@
       <c r="B29" s="53"/>
       <c r="C29" s="74"/>
       <c r="D29" s="58" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E29" s="57"/>
       <c r="F29" s="42" t="s">
@@ -29543,7 +29543,7 @@
       <c r="B30" s="53"/>
       <c r="C30" s="74"/>
       <c r="D30" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E30" s="57"/>
       <c r="F30" s="8" t="s">
@@ -29569,7 +29569,7 @@
       <c r="B31" s="53"/>
       <c r="C31" s="75"/>
       <c r="D31" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E31" s="57"/>
       <c r="F31" s="42" t="s">
@@ -29595,11 +29595,11 @@
       <c r="B32" s="53"/>
       <c r="C32" s="75"/>
       <c r="D32" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="42" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>49</v>
@@ -29621,7 +29621,7 @@
       <c r="B33" s="53"/>
       <c r="C33" s="75"/>
       <c r="D33" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="42" t="s">
@@ -29647,7 +29647,7 @@
       <c r="B34" s="53"/>
       <c r="C34" s="75"/>
       <c r="D34" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E34" s="57"/>
       <c r="F34" s="42" t="s">
@@ -29672,7 +29672,7 @@
       </c>
       <c r="C35" s="76"/>
       <c r="D35" s="59" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="49" t="s">
@@ -29755,7 +29755,7 @@
         <v>302</v>
       </c>
       <c r="C1" s="158" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D1" s="158" t="s">
         <v>307</v>
